--- a/app/resource/xlsx/major_proposal_template_3_case1.xlsx
+++ b/app/resource/xlsx/major_proposal_template_3_case1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F141E758-057E-4561-ACEE-064BA9330D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27C030B-D3C6-4546-BAB0-C32351100367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="291">
   <si>
     <t>Mechanical Design Certificate</t>
   </si>
@@ -985,9 +985,6 @@
 </t>
   </si>
   <si>
-    <t>The project is a boarding house develop and consists of:</t>
-  </si>
-  <si>
     <t>Plant room ventilations, including storage rooms, grease arrest room, garbage rooms, etc.</t>
   </si>
   <si>
@@ -1008,10 +1005,6 @@
 Development</t>
   </si>
   <si>
-    <t>Consturction
-Phase Service</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1025,31 +1018,14 @@
   </si>
   <si>
     <t xml:space="preserve">General Scope of Staging </t>
-  </si>
-  <si>
-    <t>Scope of Mechanical and Fire Protection comprises the following stages:</t>
-  </si>
-  <si>
-    <t>Desigin Application</t>
-  </si>
-  <si>
-    <t> Design Development</t>
-  </si>
-  <si>
-    <t>Construction Documents</t>
-  </si>
-  <si>
-    <t>Full set of drawings in PDF and AutoCAD 2D </t>
-  </si>
-  <si>
-    <t>Comissioning witness inspection, 2 off</t>
-  </si>
-  <si>
-    <t>Provide Asbuilt drawings</t>
   </si>
   <si>
     <t>Construction
 Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consturction
+Phase </t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1040,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,6 +1278,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1329,7 +1311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1806,86 +1788,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1894,7 +1796,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2188,13 +2090,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2202,21 +2097,73 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="34" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2229,104 +2176,38 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2337,9 +2218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2445,39 +2323,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2493,85 +2407,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2595,29 +2467,17 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2718,7 +2578,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>282272</xdr:colOff>
+      <xdr:colOff>91772</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>96192</xdr:rowOff>
     </xdr:to>
@@ -2767,7 +2627,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>589085</xdr:colOff>
       <xdr:row>282</xdr:row>
       <xdr:rowOff>22492</xdr:rowOff>
     </xdr:to>
@@ -3648,9 +3508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3688,7 +3548,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3794,7 +3654,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3936,7 +3796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3947,14 +3807,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y408"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A317" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="K322" sqref="K322"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A104" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108:I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" customWidth="1"/>
@@ -3965,67 +3827,67 @@
   </cols>
   <sheetData>
     <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A37" s="120" t="s">
+      <c r="A37" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="131" t="s">
+      <c r="F37" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="131"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="130" t="s">
+      <c r="F38" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="130" t="s">
+      <c r="F39" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="130" t="s">
+      <c r="F40" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="130" t="s">
+      <c r="F41" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -4033,28 +3895,28 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="129"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
+      <c r="A43" s="144"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
       <c r="I43" s="33" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="B45" s="123"/>
-      <c r="C45" s="123" t="e">
+        <v>280</v>
+      </c>
+      <c r="B45" s="130"/>
+      <c r="C45" s="130" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -4062,10 +3924,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -4128,15 +3990,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="146"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="146"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
+      <c r="A51" s="139"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139"/>
+      <c r="I51" s="139"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4161,26 +4023,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="127"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="127"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="127"/>
-      <c r="I54" s="127"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
+      <c r="I54" s="131"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4188,93 +4050,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="145"/>
-      <c r="R54" s="145"/>
-      <c r="S54" s="145"/>
-      <c r="T54" s="145"/>
-      <c r="U54" s="145"/>
-      <c r="V54" s="145"/>
-      <c r="W54" s="145"/>
-      <c r="X54" s="145"/>
+      <c r="Q54" s="138"/>
+      <c r="R54" s="138"/>
+      <c r="S54" s="138"/>
+      <c r="T54" s="138"/>
+      <c r="U54" s="138"/>
+      <c r="V54" s="138"/>
+      <c r="W54" s="138"/>
+      <c r="X54" s="138"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="127" t="s">
+      <c r="A56" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="M56" s="143"/>
-      <c r="N56" s="143"/>
-      <c r="O56" s="143"/>
-      <c r="P56" s="143"/>
-      <c r="Q56" s="143"/>
-      <c r="R56" s="143"/>
-      <c r="S56" s="143"/>
-      <c r="T56" s="143"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="M56" s="136"/>
+      <c r="N56" s="136"/>
+      <c r="O56" s="136"/>
+      <c r="P56" s="136"/>
+      <c r="Q56" s="136"/>
+      <c r="R56" s="136"/>
+      <c r="S56" s="136"/>
+      <c r="T56" s="136"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="127"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="M57" s="143"/>
-      <c r="N57" s="143"/>
-      <c r="O57" s="143"/>
-      <c r="P57" s="143"/>
-      <c r="Q57" s="143"/>
-      <c r="R57" s="143"/>
-      <c r="S57" s="143"/>
-      <c r="T57" s="143"/>
+      <c r="A57" s="131"/>
+      <c r="B57" s="131"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="136"/>
+      <c r="O57" s="136"/>
+      <c r="P57" s="136"/>
+      <c r="Q57" s="136"/>
+      <c r="R57" s="136"/>
+      <c r="S57" s="136"/>
+      <c r="T57" s="136"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="127"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="127"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
-      <c r="M58" s="143"/>
-      <c r="N58" s="143"/>
-      <c r="O58" s="143"/>
-      <c r="P58" s="143"/>
-      <c r="Q58" s="143"/>
-      <c r="R58" s="143"/>
-      <c r="S58" s="143"/>
-      <c r="T58" s="143"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="M58" s="136"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="136"/>
+      <c r="P58" s="136"/>
+      <c r="Q58" s="136"/>
+      <c r="R58" s="136"/>
+      <c r="S58" s="136"/>
+      <c r="T58" s="136"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="127"/>
-      <c r="B59" s="127"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="127"/>
-      <c r="I59" s="127"/>
-      <c r="M59" s="143"/>
-      <c r="N59" s="143"/>
-      <c r="O59" s="143"/>
-      <c r="P59" s="143"/>
-      <c r="Q59" s="143"/>
-      <c r="R59" s="143"/>
-      <c r="S59" s="143"/>
-      <c r="T59" s="143"/>
+      <c r="A59" s="131"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="136"/>
+      <c r="Q59" s="136"/>
+      <c r="R59" s="136"/>
+      <c r="S59" s="136"/>
+      <c r="T59" s="136"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4292,30 +4154,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="127" t="s">
+      <c r="A61" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="127"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="127"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="127"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
+      <c r="A62" s="131"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="131"/>
+      <c r="F62" s="131"/>
+      <c r="G62" s="131"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="131"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4327,16 +4189,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="127" t="s">
+      <c r="B63" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="127"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="127"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="131"/>
+      <c r="I63" s="131"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4346,32 +4208,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="127" t="s">
+      <c r="B64" s="131" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="131"/>
+      <c r="I64" s="131"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="127" t="s">
+      <c r="B65" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="127"/>
-      <c r="I65" s="127"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="131"/>
+      <c r="G65" s="131"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="131"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4380,16 +4242,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="127" t="s">
+      <c r="B66" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="127"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="127"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="131"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="131"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4410,29 +4272,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="127" t="s">
+      <c r="A68" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="127"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="131"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="127"/>
-      <c r="B69" s="127"/>
-      <c r="C69" s="127"/>
-      <c r="D69" s="127"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="127"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="127"/>
-      <c r="I69" s="127"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="131"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="131"/>
+      <c r="E69" s="131"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="131"/>
+      <c r="I69" s="131"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4581,24 +4443,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="127"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="127"/>
-      <c r="I86" s="127"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="127"/>
-      <c r="C87" s="127"/>
-      <c r="D87" s="127"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="127"/>
-      <c r="G87" s="127"/>
-      <c r="H87" s="127"/>
-      <c r="I87" s="127"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="131"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4647,16 +4509,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="127" t="s">
+      <c r="B91" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="127"/>
-      <c r="G91" s="127"/>
-      <c r="H91" s="127"/>
-      <c r="I91" s="127"/>
+      <c r="C91" s="131"/>
+      <c r="D91" s="131"/>
+      <c r="E91" s="131"/>
+      <c r="F91" s="131"/>
+      <c r="G91" s="131"/>
+      <c r="H91" s="131"/>
+      <c r="I91" s="131"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4665,25 +4527,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="127"/>
-      <c r="C92" s="127"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="127"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="127"/>
-      <c r="I92" s="127"/>
+      <c r="B92" s="131"/>
+      <c r="C92" s="131"/>
+      <c r="D92" s="131"/>
+      <c r="E92" s="131"/>
+      <c r="F92" s="131"/>
+      <c r="G92" s="131"/>
+      <c r="H92" s="131"/>
+      <c r="I92" s="131"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="127"/>
-      <c r="C93" s="127"/>
-      <c r="D93" s="127"/>
-      <c r="E93" s="127"/>
-      <c r="F93" s="127"/>
-      <c r="G93" s="127"/>
-      <c r="H93" s="127"/>
-      <c r="I93" s="127"/>
+      <c r="B93" s="131"/>
+      <c r="C93" s="131"/>
+      <c r="D93" s="131"/>
+      <c r="E93" s="131"/>
+      <c r="F93" s="131"/>
+      <c r="G93" s="131"/>
+      <c r="H93" s="131"/>
+      <c r="I93" s="131"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -4715,7 +4577,7 @@
     </row>
     <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="109" t="str">
-        <f t="shared" ref="A97:A98" si="1">IF(B97&lt;&gt;"","•","")</f>
+        <f t="shared" ref="A97" si="1">IF(B97&lt;&gt;"","•","")</f>
         <v/>
       </c>
       <c r="B97" s="107"/>
@@ -4731,13 +4593,8 @@
       <c r="P97" s="42"/>
     </row>
     <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="109" t="str">
-        <f t="shared" si="1"/>
-        <v>•</v>
-      </c>
-      <c r="B98" s="107" t="s">
-        <v>278</v>
-      </c>
+      <c r="A98" s="109"/>
+      <c r="B98" s="107"/>
       <c r="C98" s="108"/>
       <c r="D98" s="108"/>
       <c r="E98" s="108"/>
@@ -4859,8 +4716,12 @@
       <c r="P106" s="42"/>
     </row>
     <row r="107" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="109"/>
-      <c r="B107" s="113"/>
+      <c r="A107" s="118">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B107" s="119" t="s">
+        <v>288</v>
+      </c>
       <c r="C107" s="108"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
@@ -4875,13 +4736,13 @@
     <row r="108" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="109"/>
       <c r="B108" s="113"/>
-      <c r="C108" s="108"/>
-      <c r="D108" s="108"/>
-      <c r="E108" s="108"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="108"/>
-      <c r="H108" s="108"/>
-      <c r="I108" s="108"/>
+      <c r="C108" s="113"/>
+      <c r="D108" s="113"/>
+      <c r="E108" s="113"/>
+      <c r="F108" s="113"/>
+      <c r="G108" s="113"/>
+      <c r="H108" s="113"/>
+      <c r="I108" s="113"/>
       <c r="L108" s="1"/>
       <c r="M108" s="84"/>
       <c r="P108" s="42"/>
@@ -4889,13 +4750,13 @@
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="109"/>
       <c r="B109" s="113"/>
-      <c r="C109" s="108"/>
-      <c r="D109" s="108"/>
-      <c r="E109" s="108"/>
-      <c r="F109" s="108"/>
-      <c r="G109" s="108"/>
-      <c r="H109" s="108"/>
-      <c r="I109" s="108"/>
+      <c r="C109" s="113"/>
+      <c r="D109" s="113"/>
+      <c r="E109" s="113"/>
+      <c r="F109" s="113"/>
+      <c r="G109" s="113"/>
+      <c r="H109" s="113"/>
+      <c r="I109" s="113"/>
       <c r="L109" s="1"/>
       <c r="M109" s="84"/>
       <c r="P109" s="42"/>
@@ -4903,329 +4764,292 @@
     <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="109"/>
       <c r="B110" s="113"/>
-      <c r="C110" s="108"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="108"/>
-      <c r="F110" s="108"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="108"/>
-      <c r="I110" s="108"/>
+      <c r="C110" s="113"/>
+      <c r="D110" s="113"/>
+      <c r="E110" s="113"/>
+      <c r="F110" s="113"/>
+      <c r="G110" s="113"/>
+      <c r="H110" s="113"/>
+      <c r="I110" s="113"/>
       <c r="L110" s="1"/>
       <c r="M110" s="84"/>
       <c r="P110" s="42"/>
     </row>
     <row r="111" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="121">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B111" s="122" t="s">
-        <v>290</v>
-      </c>
-      <c r="C111" s="108"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="108"/>
-      <c r="F111" s="108"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="246"/>
+      <c r="C111" s="113"/>
+      <c r="D111" s="113"/>
+      <c r="E111" s="113"/>
+      <c r="F111" s="113"/>
+      <c r="G111" s="247"/>
+      <c r="H111" s="247"/>
+      <c r="I111" s="247"/>
       <c r="L111" s="1"/>
       <c r="M111" s="84"/>
       <c r="P111" s="42"/>
     </row>
     <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="109"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="108"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="108"/>
-      <c r="F112" s="108"/>
+      <c r="B112" s="245"/>
+      <c r="C112" s="113"/>
+      <c r="D112" s="113"/>
+      <c r="E112" s="113"/>
+      <c r="F112" s="113"/>
+      <c r="G112" s="247"/>
+      <c r="H112" s="247"/>
+      <c r="I112" s="247"/>
       <c r="L112" s="1"/>
       <c r="M112" s="84"/>
       <c r="P112" s="42"/>
     </row>
     <row r="113" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="113" t="s">
-        <v>291</v>
-      </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="A113" s="109"/>
+      <c r="B113" s="245"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
+      <c r="G113" s="247"/>
+      <c r="H113" s="247"/>
+      <c r="I113" s="247"/>
       <c r="L113" s="1"/>
       <c r="M113" s="84"/>
       <c r="P113" s="42"/>
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="109"/>
-      <c r="B114" s="132" t="s">
-        <v>292</v>
-      </c>
-      <c r="C114" s="133"/>
-      <c r="D114" s="133" t="s">
-        <v>238</v>
-      </c>
-      <c r="E114" s="133"/>
-      <c r="F114" s="133"/>
-      <c r="G114" s="133"/>
-      <c r="H114" s="133"/>
-      <c r="I114" s="138"/>
+      <c r="A114" s="244"/>
+      <c r="B114" s="247"/>
+      <c r="C114" s="247"/>
+      <c r="D114" s="247"/>
+      <c r="E114" s="247"/>
+      <c r="F114" s="247"/>
+      <c r="G114" s="247"/>
+      <c r="H114" s="247"/>
+      <c r="I114" s="247"/>
       <c r="L114" s="1"/>
       <c r="M114" s="84"/>
       <c r="P114" s="42"/>
     </row>
     <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="109"/>
-      <c r="B115" s="134"/>
-      <c r="C115" s="135"/>
-      <c r="D115" s="135" t="s">
-        <v>273</v>
-      </c>
-      <c r="E115" s="135"/>
-      <c r="F115" s="135"/>
-      <c r="G115" s="135"/>
-      <c r="H115" s="135"/>
-      <c r="I115" s="139"/>
+      <c r="A115" s="244"/>
+      <c r="B115" s="247"/>
+      <c r="C115" s="247"/>
+      <c r="D115" s="247"/>
+      <c r="E115" s="247"/>
+      <c r="F115" s="247"/>
+      <c r="G115" s="247"/>
+      <c r="H115" s="247"/>
+      <c r="I115" s="247"/>
       <c r="L115" s="1"/>
       <c r="M115" s="84"/>
       <c r="P115" s="42"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="109"/>
-      <c r="B116" s="136"/>
-      <c r="C116" s="137"/>
-      <c r="D116" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="E116" s="137"/>
-      <c r="F116" s="137"/>
-      <c r="G116" s="137"/>
-      <c r="H116" s="137"/>
-      <c r="I116" s="140"/>
+      <c r="A116" s="244"/>
+      <c r="B116" s="247"/>
+      <c r="C116" s="247"/>
+      <c r="D116" s="247"/>
+      <c r="E116" s="247"/>
+      <c r="F116" s="247"/>
+      <c r="G116" s="247"/>
+      <c r="H116" s="247"/>
+      <c r="I116" s="247"/>
       <c r="L116" s="1"/>
       <c r="M116" s="84"/>
       <c r="P116" s="42"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="109"/>
-      <c r="B117" s="132" t="s">
-        <v>293</v>
-      </c>
-      <c r="C117" s="133"/>
-      <c r="D117" s="133" t="s">
-        <v>238</v>
-      </c>
-      <c r="E117" s="133"/>
-      <c r="F117" s="133"/>
-      <c r="G117" s="133"/>
-      <c r="H117" s="133"/>
-      <c r="I117" s="138"/>
+      <c r="A117" s="244"/>
+      <c r="B117" s="247"/>
+      <c r="C117" s="247"/>
+      <c r="D117" s="247"/>
+      <c r="E117" s="247"/>
+      <c r="F117" s="247"/>
+      <c r="G117" s="247"/>
+      <c r="H117" s="247"/>
+      <c r="I117" s="247"/>
       <c r="L117" s="1"/>
       <c r="M117" s="84"/>
       <c r="P117" s="42"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="109"/>
-      <c r="B118" s="134"/>
-      <c r="C118" s="135"/>
-      <c r="D118" s="135" t="s">
-        <v>273</v>
-      </c>
-      <c r="E118" s="135"/>
-      <c r="F118" s="135"/>
-      <c r="G118" s="135"/>
-      <c r="H118" s="135"/>
-      <c r="I118" s="139"/>
+      <c r="A118" s="244"/>
+      <c r="B118" s="247"/>
+      <c r="C118" s="247"/>
+      <c r="D118" s="247"/>
+      <c r="E118" s="247"/>
+      <c r="F118" s="247"/>
+      <c r="G118" s="247"/>
+      <c r="H118" s="247"/>
+      <c r="I118" s="247"/>
       <c r="L118" s="1"/>
       <c r="M118" s="84"/>
       <c r="P118" s="42"/>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="109"/>
-      <c r="B119" s="136"/>
-      <c r="C119" s="137"/>
-      <c r="D119" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="E119" s="137"/>
-      <c r="F119" s="137"/>
-      <c r="G119" s="137"/>
-      <c r="H119" s="137"/>
-      <c r="I119" s="140"/>
+      <c r="A119" s="244"/>
+      <c r="B119" s="247"/>
+      <c r="C119" s="247"/>
+      <c r="D119" s="247"/>
+      <c r="E119" s="247"/>
+      <c r="F119" s="247"/>
+      <c r="G119" s="247"/>
+      <c r="H119" s="247"/>
+      <c r="I119" s="247"/>
       <c r="L119" s="1"/>
       <c r="M119" s="84"/>
       <c r="P119" s="42"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="109"/>
-      <c r="B120" s="132" t="s">
-        <v>294</v>
-      </c>
-      <c r="C120" s="133"/>
-      <c r="D120" s="133" t="s">
-        <v>238</v>
-      </c>
-      <c r="E120" s="133"/>
-      <c r="F120" s="133"/>
-      <c r="G120" s="133"/>
-      <c r="H120" s="133"/>
-      <c r="I120" s="138"/>
+      <c r="A120" s="244"/>
+      <c r="B120" s="247"/>
+      <c r="C120" s="247"/>
+      <c r="D120" s="247"/>
+      <c r="E120" s="247"/>
+      <c r="F120" s="247"/>
+      <c r="G120" s="247"/>
+      <c r="H120" s="247"/>
+      <c r="I120" s="247"/>
       <c r="L120" s="1"/>
       <c r="M120" s="84"/>
       <c r="P120" s="42"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="109"/>
-      <c r="B121" s="134"/>
-      <c r="C121" s="135"/>
-      <c r="D121" s="135" t="s">
-        <v>239</v>
-      </c>
-      <c r="E121" s="135"/>
-      <c r="F121" s="135"/>
-      <c r="G121" s="135"/>
-      <c r="H121" s="135"/>
-      <c r="I121" s="139"/>
+      <c r="A121" s="244"/>
+      <c r="B121" s="247"/>
+      <c r="C121" s="247"/>
+      <c r="D121" s="247"/>
+      <c r="E121" s="247"/>
+      <c r="F121" s="247"/>
+      <c r="G121" s="247"/>
+      <c r="H121" s="247"/>
+      <c r="I121" s="247"/>
       <c r="L121" s="1"/>
       <c r="M121" s="84"/>
       <c r="P121" s="42"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="109"/>
-      <c r="B122" s="134"/>
-      <c r="C122" s="135"/>
-      <c r="D122" s="135" t="s">
-        <v>295</v>
-      </c>
-      <c r="E122" s="135"/>
-      <c r="F122" s="135"/>
-      <c r="G122" s="135"/>
-      <c r="H122" s="135"/>
-      <c r="I122" s="139"/>
+      <c r="A122" s="244"/>
+      <c r="B122" s="247"/>
+      <c r="C122" s="247"/>
+      <c r="D122" s="247"/>
+      <c r="E122" s="247"/>
+      <c r="F122" s="247"/>
+      <c r="G122" s="247"/>
+      <c r="H122" s="247"/>
+      <c r="I122" s="247"/>
       <c r="L122" s="1"/>
       <c r="M122" s="84"/>
       <c r="P122" s="42"/>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="109"/>
-      <c r="B123" s="134"/>
-      <c r="C123" s="135"/>
-      <c r="D123" s="135" t="s">
-        <v>257</v>
-      </c>
-      <c r="E123" s="135"/>
-      <c r="F123" s="135"/>
-      <c r="G123" s="135"/>
-      <c r="H123" s="135"/>
-      <c r="I123" s="139"/>
+      <c r="A123" s="244"/>
+      <c r="B123" s="247"/>
+      <c r="C123" s="247"/>
+      <c r="D123" s="247"/>
+      <c r="E123" s="247"/>
+      <c r="F123" s="247"/>
+      <c r="G123" s="247"/>
+      <c r="H123" s="247"/>
+      <c r="I123" s="247"/>
       <c r="L123" s="1"/>
       <c r="M123" s="84"/>
       <c r="P123" s="42"/>
     </row>
     <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="109"/>
-      <c r="B124" s="136"/>
-      <c r="C124" s="137"/>
-      <c r="D124" s="137" t="s">
-        <v>276</v>
-      </c>
-      <c r="E124" s="137"/>
-      <c r="F124" s="137"/>
-      <c r="G124" s="137"/>
-      <c r="H124" s="137"/>
-      <c r="I124" s="140"/>
+      <c r="A124" s="244"/>
+      <c r="B124" s="247"/>
+      <c r="C124" s="247"/>
+      <c r="D124" s="247"/>
+      <c r="E124" s="247"/>
+      <c r="F124" s="247"/>
+      <c r="G124" s="247"/>
+      <c r="H124" s="247"/>
+      <c r="I124" s="247"/>
       <c r="L124" s="1"/>
       <c r="M124" s="84"/>
       <c r="P124" s="42"/>
     </row>
     <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="109"/>
-      <c r="B125" s="147" t="s">
-        <v>256</v>
-      </c>
-      <c r="C125" s="148"/>
-      <c r="D125" s="148" t="s">
-        <v>261</v>
-      </c>
-      <c r="E125" s="148"/>
-      <c r="F125" s="148"/>
-      <c r="G125" s="148"/>
-      <c r="H125" s="148"/>
-      <c r="I125" s="153"/>
+      <c r="A125" s="244"/>
+      <c r="B125" s="247"/>
+      <c r="C125" s="247"/>
+      <c r="D125" s="247"/>
+      <c r="E125" s="247"/>
+      <c r="F125" s="247"/>
+      <c r="G125" s="247"/>
+      <c r="H125" s="247"/>
+      <c r="I125" s="247"/>
       <c r="L125" s="1"/>
       <c r="M125" s="84"/>
       <c r="P125" s="42"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="109"/>
-      <c r="B126" s="149"/>
-      <c r="C126" s="150"/>
-      <c r="D126" s="150" t="s">
-        <v>262</v>
-      </c>
-      <c r="E126" s="150"/>
-      <c r="F126" s="150"/>
-      <c r="G126" s="150"/>
-      <c r="H126" s="150"/>
-      <c r="I126" s="157"/>
+      <c r="A126" s="244"/>
+      <c r="B126" s="247"/>
+      <c r="C126" s="247"/>
+      <c r="D126" s="247"/>
+      <c r="E126" s="247"/>
+      <c r="F126" s="247"/>
+      <c r="G126" s="247"/>
+      <c r="H126" s="247"/>
+      <c r="I126" s="247"/>
       <c r="L126" s="1"/>
       <c r="M126" s="84"/>
       <c r="P126" s="42"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="108"/>
-      <c r="B127" s="149"/>
-      <c r="C127" s="150"/>
-      <c r="D127" s="150" t="s">
-        <v>263</v>
-      </c>
-      <c r="E127" s="150"/>
-      <c r="F127" s="150"/>
-      <c r="G127" s="150"/>
-      <c r="H127" s="150"/>
-      <c r="I127" s="157"/>
+      <c r="A127" s="244"/>
+      <c r="B127" s="247"/>
+      <c r="C127" s="247"/>
+      <c r="D127" s="247"/>
+      <c r="E127" s="247"/>
+      <c r="F127" s="247"/>
+      <c r="G127" s="247"/>
+      <c r="H127" s="247"/>
+      <c r="I127" s="247"/>
       <c r="M127" s="85"/>
       <c r="P127" s="42"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="108"/>
-      <c r="B128" s="149"/>
-      <c r="C128" s="150"/>
-      <c r="D128" s="150" t="s">
-        <v>296</v>
-      </c>
-      <c r="E128" s="150"/>
-      <c r="F128" s="150"/>
-      <c r="G128" s="150"/>
-      <c r="H128" s="150"/>
-      <c r="I128" s="157"/>
+      <c r="A128" s="244"/>
+      <c r="B128" s="247"/>
+      <c r="C128" s="247"/>
+      <c r="D128" s="247"/>
+      <c r="E128" s="247"/>
+      <c r="F128" s="247"/>
+      <c r="G128" s="247"/>
+      <c r="H128" s="247"/>
+      <c r="I128" s="247"/>
       <c r="M128" s="85"/>
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="108"/>
-      <c r="B129" s="151"/>
-      <c r="C129" s="152"/>
-      <c r="D129" s="152" t="s">
-        <v>297</v>
-      </c>
-      <c r="E129" s="152"/>
-      <c r="F129" s="152"/>
-      <c r="G129" s="152"/>
-      <c r="H129" s="152"/>
-      <c r="I129" s="158"/>
+      <c r="A129" s="244"/>
+      <c r="B129" s="247"/>
+      <c r="C129" s="247"/>
+      <c r="D129" s="247"/>
+      <c r="E129" s="247"/>
+      <c r="F129" s="247"/>
+      <c r="G129" s="247"/>
+      <c r="H129" s="247"/>
+      <c r="I129" s="247"/>
       <c r="M129" s="85"/>
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
     </row>
     <row r="130" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="108"/>
+      <c r="A130" s="109"/>
       <c r="B130" s="113"/>
-      <c r="C130" s="108"/>
-      <c r="D130" s="108"/>
-      <c r="E130" s="108"/>
-      <c r="F130" s="108"/>
-      <c r="G130" s="108"/>
-      <c r="H130" s="108"/>
-      <c r="I130" s="108"/>
+      <c r="C130" s="113"/>
+      <c r="D130" s="113"/>
+      <c r="E130" s="113"/>
+      <c r="F130" s="113"/>
+      <c r="G130" s="113"/>
+      <c r="H130" s="113"/>
+      <c r="I130" s="113"/>
       <c r="M130" s="85"/>
       <c r="O130" s="42"/>
       <c r="P130" s="42"/>
@@ -5814,7 +5638,7 @@
       <c r="G179" s="28"/>
       <c r="I179" s="112"/>
       <c r="L179" s="100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N179" s="59"/>
       <c r="O179" s="42"/>
@@ -5826,16 +5650,16 @@
         <f t="shared" ref="L180:L237" si="2">IF(M180&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M180" s="125" t="s">
+      <c r="M180" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="N180" s="125"/>
-      <c r="O180" s="125"/>
-      <c r="P180" s="125"/>
-      <c r="Q180" s="125"/>
-      <c r="R180" s="125"/>
-      <c r="S180" s="125"/>
-      <c r="T180" s="125"/>
+      <c r="N180" s="132"/>
+      <c r="O180" s="132"/>
+      <c r="P180" s="132"/>
+      <c r="Q180" s="132"/>
+      <c r="R180" s="132"/>
+      <c r="S180" s="132"/>
+      <c r="T180" s="132"/>
     </row>
     <row r="181" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="31"/>
@@ -6395,16 +6219,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M227" s="125" t="s">
+      <c r="M227" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="N227" s="125"/>
-      <c r="O227" s="125"/>
-      <c r="P227" s="125"/>
-      <c r="Q227" s="125"/>
-      <c r="R227" s="125"/>
-      <c r="S227" s="125"/>
-      <c r="T227" s="125"/>
+      <c r="N227" s="132"/>
+      <c r="O227" s="132"/>
+      <c r="P227" s="132"/>
+      <c r="Q227" s="132"/>
+      <c r="R227" s="132"/>
+      <c r="S227" s="132"/>
+      <c r="T227" s="132"/>
     </row>
     <row r="228" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="31" t="str">
@@ -6461,16 +6285,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M231" s="127" t="s">
-        <v>279</v>
-      </c>
-      <c r="N231" s="127"/>
-      <c r="O231" s="127"/>
-      <c r="P231" s="127"/>
-      <c r="Q231" s="127"/>
-      <c r="R231" s="127"/>
-      <c r="S231" s="127"/>
-      <c r="T231" s="127"/>
+      <c r="M231" s="131" t="s">
+        <v>278</v>
+      </c>
+      <c r="N231" s="131"/>
+      <c r="O231" s="131"/>
+      <c r="P231" s="131"/>
+      <c r="Q231" s="131"/>
+      <c r="R231" s="131"/>
+      <c r="S231" s="131"/>
+      <c r="T231" s="131"/>
     </row>
     <row r="232" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="31"/>
@@ -6517,16 +6341,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M235" s="125" t="s">
+      <c r="M235" s="132" t="s">
         <v>254</v>
       </c>
-      <c r="N235" s="125"/>
-      <c r="O235" s="125"/>
-      <c r="P235" s="125"/>
-      <c r="Q235" s="125"/>
-      <c r="R235" s="125"/>
-      <c r="S235" s="125"/>
-      <c r="T235" s="125"/>
+      <c r="N235" s="132"/>
+      <c r="O235" s="132"/>
+      <c r="P235" s="132"/>
+      <c r="Q235" s="132"/>
+      <c r="R235" s="132"/>
+      <c r="S235" s="132"/>
+      <c r="T235" s="132"/>
     </row>
     <row r="236" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="31"/>
@@ -6546,28 +6370,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M237" s="125" t="s">
+      <c r="M237" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="N237" s="125"/>
-      <c r="O237" s="125"/>
-      <c r="P237" s="125"/>
-      <c r="Q237" s="125"/>
-      <c r="R237" s="125"/>
-      <c r="S237" s="125"/>
-      <c r="T237" s="125"/>
+      <c r="N237" s="132"/>
+      <c r="O237" s="132"/>
+      <c r="P237" s="132"/>
+      <c r="Q237" s="132"/>
+      <c r="R237" s="132"/>
+      <c r="S237" s="132"/>
+      <c r="T237" s="132"/>
     </row>
     <row r="238" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="31"/>
       <c r="L238" s="31"/>
-      <c r="M238" s="125"/>
-      <c r="N238" s="125"/>
-      <c r="O238" s="125"/>
-      <c r="P238" s="125"/>
-      <c r="Q238" s="125"/>
-      <c r="R238" s="125"/>
-      <c r="S238" s="125"/>
-      <c r="T238" s="125"/>
+      <c r="M238" s="132"/>
+      <c r="N238" s="132"/>
+      <c r="O238" s="132"/>
+      <c r="P238" s="132"/>
+      <c r="Q238" s="132"/>
+      <c r="R238" s="132"/>
+      <c r="S238" s="132"/>
+      <c r="T238" s="132"/>
     </row>
     <row r="239" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="31"/>
@@ -7099,16 +6923,16 @@
     </row>
     <row r="271" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="60"/>
-      <c r="B271" s="127" t="s">
+      <c r="B271" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="C271" s="127"/>
-      <c r="D271" s="127"/>
-      <c r="E271" s="127"/>
-      <c r="F271" s="127"/>
-      <c r="G271" s="127"/>
-      <c r="H271" s="127"/>
-      <c r="I271" s="127"/>
+      <c r="C271" s="131"/>
+      <c r="D271" s="131"/>
+      <c r="E271" s="131"/>
+      <c r="F271" s="131"/>
+      <c r="G271" s="131"/>
+      <c r="H271" s="131"/>
+      <c r="I271" s="131"/>
       <c r="K271" s="59"/>
       <c r="N271" s="42"/>
       <c r="O271" s="42"/>
@@ -7116,14 +6940,14 @@
     </row>
     <row r="272" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="60"/>
-      <c r="B272" s="127"/>
-      <c r="C272" s="127"/>
-      <c r="D272" s="127"/>
-      <c r="E272" s="127"/>
-      <c r="F272" s="127"/>
-      <c r="G272" s="127"/>
-      <c r="H272" s="127"/>
-      <c r="I272" s="127"/>
+      <c r="B272" s="131"/>
+      <c r="C272" s="131"/>
+      <c r="D272" s="131"/>
+      <c r="E272" s="131"/>
+      <c r="F272" s="131"/>
+      <c r="G272" s="131"/>
+      <c r="H272" s="131"/>
+      <c r="I272" s="131"/>
       <c r="K272" s="59"/>
       <c r="M272" s="42"/>
       <c r="N272" s="42"/>
@@ -7132,14 +6956,14 @@
     </row>
     <row r="273" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="60"/>
-      <c r="B273" s="127"/>
-      <c r="C273" s="127"/>
-      <c r="D273" s="127"/>
-      <c r="E273" s="127"/>
-      <c r="F273" s="127"/>
-      <c r="G273" s="127"/>
-      <c r="H273" s="127"/>
-      <c r="I273" s="127"/>
+      <c r="B273" s="131"/>
+      <c r="C273" s="131"/>
+      <c r="D273" s="131"/>
+      <c r="E273" s="131"/>
+      <c r="F273" s="131"/>
+      <c r="G273" s="131"/>
+      <c r="H273" s="131"/>
+      <c r="I273" s="131"/>
       <c r="K273" s="59"/>
       <c r="M273" s="42"/>
       <c r="N273" s="42"/>
@@ -7148,14 +6972,14 @@
     </row>
     <row r="274" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="60"/>
-      <c r="B274" s="127"/>
-      <c r="C274" s="127"/>
-      <c r="D274" s="127"/>
-      <c r="E274" s="127"/>
-      <c r="F274" s="127"/>
-      <c r="G274" s="127"/>
-      <c r="H274" s="127"/>
-      <c r="I274" s="127"/>
+      <c r="B274" s="131"/>
+      <c r="C274" s="131"/>
+      <c r="D274" s="131"/>
+      <c r="E274" s="131"/>
+      <c r="F274" s="131"/>
+      <c r="G274" s="131"/>
+      <c r="H274" s="131"/>
+      <c r="I274" s="131"/>
       <c r="K274" s="59"/>
       <c r="M274" s="42"/>
       <c r="N274" s="42"/>
@@ -7198,16 +7022,16 @@
     </row>
     <row r="277" spans="1:25" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="60"/>
-      <c r="B277" s="127" t="s">
+      <c r="B277" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="C277" s="127"/>
-      <c r="D277" s="127"/>
-      <c r="E277" s="127"/>
-      <c r="F277" s="127"/>
-      <c r="G277" s="127"/>
-      <c r="H277" s="127"/>
-      <c r="I277" s="127"/>
+      <c r="C277" s="131"/>
+      <c r="D277" s="131"/>
+      <c r="E277" s="131"/>
+      <c r="F277" s="131"/>
+      <c r="G277" s="131"/>
+      <c r="H277" s="131"/>
+      <c r="I277" s="131"/>
       <c r="K277" s="59"/>
       <c r="M277" s="42"/>
       <c r="N277" s="42"/>
@@ -7216,14 +7040,14 @@
     </row>
     <row r="278" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="60"/>
-      <c r="B278" s="127"/>
-      <c r="C278" s="127"/>
-      <c r="D278" s="127"/>
-      <c r="E278" s="127"/>
-      <c r="F278" s="127"/>
-      <c r="G278" s="127"/>
-      <c r="H278" s="127"/>
-      <c r="I278" s="127"/>
+      <c r="B278" s="131"/>
+      <c r="C278" s="131"/>
+      <c r="D278" s="131"/>
+      <c r="E278" s="131"/>
+      <c r="F278" s="131"/>
+      <c r="G278" s="131"/>
+      <c r="H278" s="131"/>
+      <c r="I278" s="131"/>
       <c r="K278" s="59" t="s">
         <v>217</v>
       </c>
@@ -7346,16 +7170,16 @@
     </row>
     <row r="285" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="59"/>
-      <c r="B285" s="125" t="s">
+      <c r="B285" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="C285" s="125"/>
-      <c r="D285" s="125"/>
-      <c r="E285" s="125"/>
-      <c r="F285" s="125"/>
-      <c r="G285" s="125"/>
-      <c r="H285" s="125"/>
-      <c r="I285" s="125"/>
+      <c r="C285" s="132"/>
+      <c r="D285" s="132"/>
+      <c r="E285" s="132"/>
+      <c r="F285" s="132"/>
+      <c r="G285" s="132"/>
+      <c r="H285" s="132"/>
+      <c r="I285" s="132"/>
       <c r="K285" s="59" t="s">
         <v>274</v>
       </c>
@@ -7596,16 +7420,16 @@
     </row>
     <row r="298" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="59"/>
-      <c r="B298" s="123" t="s">
+      <c r="B298" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C298" s="123"/>
-      <c r="D298" s="123"/>
-      <c r="E298" s="123"/>
-      <c r="F298" s="123"/>
-      <c r="G298" s="123"/>
-      <c r="H298" s="123"/>
-      <c r="I298" s="123"/>
+      <c r="C298" s="130"/>
+      <c r="D298" s="130"/>
+      <c r="E298" s="130"/>
+      <c r="F298" s="130"/>
+      <c r="G298" s="130"/>
+      <c r="H298" s="130"/>
+      <c r="I298" s="130"/>
       <c r="K298" t="s">
         <v>65</v>
       </c>
@@ -7664,16 +7488,16 @@
       <c r="P302" s="42"/>
     </row>
     <row r="303" spans="1:25" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="125" t="s">
+      <c r="B303" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="C303" s="125"/>
-      <c r="D303" s="125"/>
-      <c r="E303" s="125"/>
-      <c r="F303" s="125"/>
-      <c r="G303" s="125"/>
-      <c r="H303" s="125"/>
-      <c r="I303" s="125"/>
+      <c r="C303" s="132"/>
+      <c r="D303" s="132"/>
+      <c r="E303" s="132"/>
+      <c r="F303" s="132"/>
+      <c r="G303" s="132"/>
+      <c r="H303" s="132"/>
+      <c r="I303" s="132"/>
       <c r="K303" s="59"/>
       <c r="L303" s="61"/>
     </row>
@@ -7682,14 +7506,14 @@
         <v>142</v>
       </c>
       <c r="C304" s="77"/>
-      <c r="D304" s="155" t="s">
+      <c r="D304" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="E304" s="155"/>
-      <c r="F304" s="155" t="s">
+      <c r="E304" s="133"/>
+      <c r="F304" s="133" t="s">
         <v>144</v>
       </c>
-      <c r="G304" s="155"/>
+      <c r="G304" s="133"/>
       <c r="H304" s="29"/>
       <c r="O304" s="25"/>
       <c r="P304" s="29"/>
@@ -7699,14 +7523,14 @@
         <v>138</v>
       </c>
       <c r="C305" s="54"/>
-      <c r="D305" s="124" t="s">
+      <c r="D305" s="135" t="s">
         <v>139</v>
       </c>
-      <c r="E305" s="124"/>
-      <c r="F305" s="156">
+      <c r="E305" s="135"/>
+      <c r="F305" s="134">
         <v>10000000</v>
       </c>
-      <c r="G305" s="156"/>
+      <c r="G305" s="134"/>
       <c r="H305" s="48"/>
       <c r="I305" s="25"/>
       <c r="O305" s="47"/>
@@ -7717,14 +7541,14 @@
         <v>140</v>
       </c>
       <c r="C306" s="54"/>
-      <c r="D306" s="124" t="s">
+      <c r="D306" s="135" t="s">
         <v>141</v>
       </c>
-      <c r="E306" s="124"/>
-      <c r="F306" s="156">
+      <c r="E306" s="135"/>
+      <c r="F306" s="134">
         <v>20000000</v>
       </c>
-      <c r="G306" s="156"/>
+      <c r="G306" s="134"/>
       <c r="H306" s="48"/>
       <c r="O306" s="47"/>
       <c r="P306" s="66"/>
@@ -7793,16 +7617,16 @@
     </row>
     <row r="310" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
-      <c r="B310" s="127" t="s">
+      <c r="B310" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="C310" s="127"/>
-      <c r="D310" s="127"/>
-      <c r="E310" s="127"/>
-      <c r="F310" s="127"/>
-      <c r="G310" s="127"/>
-      <c r="H310" s="127"/>
-      <c r="I310" s="127"/>
+      <c r="C310" s="131"/>
+      <c r="D310" s="131"/>
+      <c r="E310" s="131"/>
+      <c r="F310" s="131"/>
+      <c r="G310" s="131"/>
+      <c r="H310" s="131"/>
+      <c r="I310" s="131"/>
       <c r="P310" s="66"/>
       <c r="Q310" s="35"/>
       <c r="R310" s="35"/>
@@ -7811,39 +7635,39 @@
     </row>
     <row r="311" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
-      <c r="B311" s="127"/>
-      <c r="C311" s="127"/>
-      <c r="D311" s="127"/>
-      <c r="E311" s="127"/>
-      <c r="F311" s="127"/>
-      <c r="G311" s="127"/>
-      <c r="H311" s="127"/>
-      <c r="I311" s="127"/>
+      <c r="B311" s="131"/>
+      <c r="C311" s="131"/>
+      <c r="D311" s="131"/>
+      <c r="E311" s="131"/>
+      <c r="F311" s="131"/>
+      <c r="G311" s="131"/>
+      <c r="H311" s="131"/>
+      <c r="I311" s="131"/>
       <c r="P311" s="66"/>
     </row>
     <row r="312" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
-      <c r="B312" s="127"/>
-      <c r="C312" s="127"/>
-      <c r="D312" s="127"/>
-      <c r="E312" s="127"/>
-      <c r="F312" s="127"/>
-      <c r="G312" s="127"/>
-      <c r="H312" s="127"/>
-      <c r="I312" s="127"/>
+      <c r="B312" s="131"/>
+      <c r="C312" s="131"/>
+      <c r="D312" s="131"/>
+      <c r="E312" s="131"/>
+      <c r="F312" s="131"/>
+      <c r="G312" s="131"/>
+      <c r="H312" s="131"/>
+      <c r="I312" s="131"/>
       <c r="P312" s="66"/>
       <c r="S312" s="34"/>
     </row>
     <row r="313" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
-      <c r="B313" s="127"/>
-      <c r="C313" s="127"/>
-      <c r="D313" s="127"/>
-      <c r="E313" s="127"/>
-      <c r="F313" s="127"/>
-      <c r="G313" s="127"/>
-      <c r="H313" s="127"/>
-      <c r="I313" s="127"/>
+      <c r="B313" s="131"/>
+      <c r="C313" s="131"/>
+      <c r="D313" s="131"/>
+      <c r="E313" s="131"/>
+      <c r="F313" s="131"/>
+      <c r="G313" s="131"/>
+      <c r="H313" s="131"/>
+      <c r="I313" s="131"/>
       <c r="P313" s="66"/>
       <c r="Q313" s="16"/>
       <c r="R313" s="16"/>
@@ -7889,46 +7713,46 @@
       <c r="P315" s="42"/>
     </row>
     <row r="316" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="127" t="s">
+      <c r="B316" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C316" s="127"/>
-      <c r="D316" s="127"/>
-      <c r="E316" s="127"/>
-      <c r="F316" s="127"/>
-      <c r="G316" s="127"/>
-      <c r="H316" s="127"/>
-      <c r="I316" s="127"/>
+      <c r="C316" s="131"/>
+      <c r="D316" s="131"/>
+      <c r="E316" s="131"/>
+      <c r="F316" s="131"/>
+      <c r="G316" s="131"/>
+      <c r="H316" s="131"/>
+      <c r="I316" s="131"/>
     </row>
     <row r="317" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="127"/>
-      <c r="C317" s="127"/>
-      <c r="D317" s="127"/>
-      <c r="E317" s="127"/>
-      <c r="F317" s="127"/>
-      <c r="G317" s="127"/>
-      <c r="H317" s="127"/>
-      <c r="I317" s="127"/>
+      <c r="B317" s="131"/>
+      <c r="C317" s="131"/>
+      <c r="D317" s="131"/>
+      <c r="E317" s="131"/>
+      <c r="F317" s="131"/>
+      <c r="G317" s="131"/>
+      <c r="H317" s="131"/>
+      <c r="I317" s="131"/>
     </row>
     <row r="318" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="154" t="s">
+      <c r="B318" s="127" t="s">
+        <v>281</v>
+      </c>
+      <c r="C318" s="127"/>
+      <c r="D318" s="128" t="s">
         <v>282</v>
       </c>
-      <c r="C318" s="154"/>
-      <c r="D318" s="163" t="s">
+      <c r="E318" s="128" t="s">
         <v>283</v>
       </c>
-      <c r="E318" s="163" t="s">
+      <c r="F318" s="128" t="s">
+        <v>289</v>
+      </c>
+      <c r="G318" s="128" t="s">
+        <v>290</v>
+      </c>
+      <c r="H318" s="127" t="s">
         <v>284</v>
-      </c>
-      <c r="F318" s="163" t="s">
-        <v>298</v>
-      </c>
-      <c r="G318" s="163" t="s">
-        <v>285</v>
-      </c>
-      <c r="H318" s="154" t="s">
-        <v>286</v>
       </c>
       <c r="I318" s="25"/>
       <c r="L318" s="59"/>
@@ -7938,13 +7762,13 @@
       <c r="P318" s="116"/>
     </row>
     <row r="319" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="154"/>
-      <c r="C319" s="154"/>
-      <c r="D319" s="164"/>
-      <c r="E319" s="164"/>
-      <c r="F319" s="164"/>
-      <c r="G319" s="164"/>
-      <c r="H319" s="154"/>
+      <c r="B319" s="127"/>
+      <c r="C319" s="127"/>
+      <c r="D319" s="129"/>
+      <c r="E319" s="129"/>
+      <c r="F319" s="129"/>
+      <c r="G319" s="129"/>
+      <c r="H319" s="127"/>
       <c r="I319" s="25"/>
       <c r="L319" s="59"/>
       <c r="M319" s="59"/>
@@ -7953,13 +7777,13 @@
       <c r="P319" s="116"/>
     </row>
     <row r="320" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="159"/>
-      <c r="C320" s="159"/>
-      <c r="D320" s="117"/>
-      <c r="E320" s="117"/>
-      <c r="F320" s="117"/>
-      <c r="G320" s="118"/>
-      <c r="H320" s="118"/>
+      <c r="B320" s="123"/>
+      <c r="C320" s="123"/>
+      <c r="D320" s="121"/>
+      <c r="E320" s="121"/>
+      <c r="F320" s="121"/>
+      <c r="G320" s="121"/>
+      <c r="H320" s="121"/>
       <c r="I320" s="25"/>
       <c r="L320" s="59"/>
       <c r="M320" s="59"/>
@@ -7968,13 +7792,13 @@
       <c r="P320" s="116"/>
     </row>
     <row r="321" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="161"/>
-      <c r="C321" s="162"/>
-      <c r="D321" s="117"/>
-      <c r="E321" s="117"/>
-      <c r="F321" s="117"/>
-      <c r="G321" s="118"/>
-      <c r="H321" s="118"/>
+      <c r="B321" s="125"/>
+      <c r="C321" s="126"/>
+      <c r="D321" s="120"/>
+      <c r="E321" s="120"/>
+      <c r="F321" s="120"/>
+      <c r="G321" s="121"/>
+      <c r="H321" s="121"/>
       <c r="I321" s="25"/>
       <c r="L321" s="59"/>
       <c r="M321" s="59"/>
@@ -7983,13 +7807,13 @@
       <c r="P321" s="116"/>
     </row>
     <row r="322" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="161"/>
-      <c r="C322" s="162"/>
-      <c r="D322" s="117"/>
-      <c r="E322" s="117"/>
-      <c r="F322" s="117"/>
-      <c r="G322" s="118"/>
-      <c r="H322" s="118"/>
+      <c r="B322" s="125"/>
+      <c r="C322" s="126"/>
+      <c r="D322" s="120"/>
+      <c r="E322" s="120"/>
+      <c r="F322" s="120"/>
+      <c r="G322" s="121"/>
+      <c r="H322" s="121"/>
       <c r="I322" s="25"/>
       <c r="L322" s="59"/>
       <c r="M322" s="59"/>
@@ -7998,15 +7822,15 @@
       <c r="P322" s="116"/>
     </row>
     <row r="323" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" s="159" t="s">
-        <v>287</v>
-      </c>
-      <c r="C323" s="159"/>
-      <c r="D323" s="119"/>
-      <c r="E323" s="117"/>
-      <c r="F323" s="117"/>
-      <c r="G323" s="118"/>
-      <c r="H323" s="118"/>
+      <c r="B323" s="123" t="s">
+        <v>285</v>
+      </c>
+      <c r="C323" s="123"/>
+      <c r="D323" s="122"/>
+      <c r="E323" s="120"/>
+      <c r="F323" s="120"/>
+      <c r="G323" s="121"/>
+      <c r="H323" s="121"/>
       <c r="I323" s="25"/>
       <c r="L323" s="59"/>
       <c r="M323" s="59"/>
@@ -8015,15 +7839,15 @@
       <c r="P323" s="116"/>
     </row>
     <row r="324" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" s="160" t="s">
-        <v>288</v>
-      </c>
-      <c r="C324" s="160"/>
-      <c r="D324" s="160"/>
-      <c r="E324" s="160"/>
-      <c r="F324" s="160"/>
-      <c r="G324" s="160"/>
-      <c r="H324" s="118"/>
+      <c r="B324" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="C324" s="124"/>
+      <c r="D324" s="124"/>
+      <c r="E324" s="124"/>
+      <c r="F324" s="124"/>
+      <c r="G324" s="124"/>
+      <c r="H324" s="121"/>
       <c r="I324" s="25"/>
       <c r="L324" s="59"/>
       <c r="M324" s="59"/>
@@ -8032,15 +7856,15 @@
       <c r="P324" s="116"/>
     </row>
     <row r="325" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="160" t="s">
-        <v>289</v>
-      </c>
-      <c r="C325" s="160"/>
-      <c r="D325" s="160"/>
-      <c r="E325" s="160"/>
-      <c r="F325" s="160"/>
-      <c r="G325" s="160"/>
-      <c r="H325" s="118"/>
+      <c r="B325" s="124" t="s">
+        <v>287</v>
+      </c>
+      <c r="C325" s="124"/>
+      <c r="D325" s="124"/>
+      <c r="E325" s="124"/>
+      <c r="F325" s="124"/>
+      <c r="G325" s="124"/>
+      <c r="H325" s="121"/>
       <c r="I325" s="25"/>
       <c r="L325" s="59"/>
       <c r="M325" s="59"/>
@@ -8094,28 +7918,28 @@
       <c r="P328" s="66"/>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B329" s="127" t="s">
+      <c r="B329" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="C329" s="127"/>
-      <c r="D329" s="127"/>
-      <c r="E329" s="127"/>
-      <c r="F329" s="127"/>
-      <c r="G329" s="127"/>
-      <c r="H329" s="127"/>
-      <c r="I329" s="127"/>
+      <c r="C329" s="131"/>
+      <c r="D329" s="131"/>
+      <c r="E329" s="131"/>
+      <c r="F329" s="131"/>
+      <c r="G329" s="131"/>
+      <c r="H329" s="131"/>
+      <c r="I329" s="131"/>
       <c r="P329" s="66"/>
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="46"/>
-      <c r="B330" s="127"/>
-      <c r="C330" s="127"/>
-      <c r="D330" s="127"/>
-      <c r="E330" s="127"/>
-      <c r="F330" s="127"/>
-      <c r="G330" s="127"/>
-      <c r="H330" s="127"/>
-      <c r="I330" s="127"/>
+      <c r="B330" s="131"/>
+      <c r="C330" s="131"/>
+      <c r="D330" s="131"/>
+      <c r="E330" s="131"/>
+      <c r="F330" s="131"/>
+      <c r="G330" s="131"/>
+      <c r="H330" s="131"/>
+      <c r="I330" s="131"/>
       <c r="P330" s="66"/>
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.25">
@@ -8357,11 +8181,11 @@
       <c r="B356" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F356" s="142">
+      <c r="F356" s="141">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="G356" s="142"/>
+        <v>45308</v>
+      </c>
+      <c r="G356" s="141"/>
       <c r="K356" s="45"/>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
@@ -8381,374 +8205,374 @@
       <c r="A359" s="28">
         <v>1</v>
       </c>
-      <c r="B359" s="141" t="s">
+      <c r="B359" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="C359" s="141"/>
-      <c r="D359" s="141"/>
-      <c r="E359" s="141"/>
-      <c r="F359" s="141"/>
-      <c r="G359" s="141"/>
-      <c r="H359" s="141"/>
-      <c r="I359" s="141"/>
+      <c r="C359" s="140"/>
+      <c r="D359" s="140"/>
+      <c r="E359" s="140"/>
+      <c r="F359" s="140"/>
+      <c r="G359" s="140"/>
+      <c r="H359" s="140"/>
+      <c r="I359" s="140"/>
     </row>
     <row r="360" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="28">
         <v>2</v>
       </c>
-      <c r="B360" s="141" t="s">
+      <c r="B360" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="C360" s="141"/>
-      <c r="D360" s="141"/>
-      <c r="E360" s="141"/>
-      <c r="F360" s="141"/>
-      <c r="G360" s="141"/>
-      <c r="H360" s="141"/>
-      <c r="I360" s="141"/>
+      <c r="C360" s="140"/>
+      <c r="D360" s="140"/>
+      <c r="E360" s="140"/>
+      <c r="F360" s="140"/>
+      <c r="G360" s="140"/>
+      <c r="H360" s="140"/>
+      <c r="I360" s="140"/>
     </row>
     <row r="361" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="28">
         <v>3</v>
       </c>
-      <c r="B361" s="141" t="s">
+      <c r="B361" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="C361" s="141"/>
-      <c r="D361" s="141"/>
-      <c r="E361" s="141"/>
-      <c r="F361" s="141"/>
-      <c r="G361" s="141"/>
-      <c r="H361" s="141"/>
-      <c r="I361" s="141"/>
+      <c r="C361" s="140"/>
+      <c r="D361" s="140"/>
+      <c r="E361" s="140"/>
+      <c r="F361" s="140"/>
+      <c r="G361" s="140"/>
+      <c r="H361" s="140"/>
+      <c r="I361" s="140"/>
     </row>
     <row r="362" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="28">
         <v>4</v>
       </c>
-      <c r="B362" s="141" t="s">
+      <c r="B362" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="C362" s="141"/>
-      <c r="D362" s="141"/>
-      <c r="E362" s="141"/>
-      <c r="F362" s="141"/>
-      <c r="G362" s="141"/>
-      <c r="H362" s="141"/>
-      <c r="I362" s="141"/>
+      <c r="C362" s="140"/>
+      <c r="D362" s="140"/>
+      <c r="E362" s="140"/>
+      <c r="F362" s="140"/>
+      <c r="G362" s="140"/>
+      <c r="H362" s="140"/>
+      <c r="I362" s="140"/>
     </row>
     <row r="363" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="28">
         <v>5</v>
       </c>
-      <c r="B363" s="141" t="s">
+      <c r="B363" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="C363" s="141"/>
-      <c r="D363" s="141"/>
-      <c r="E363" s="141"/>
-      <c r="F363" s="141"/>
-      <c r="G363" s="141"/>
-      <c r="H363" s="141"/>
-      <c r="I363" s="141"/>
+      <c r="C363" s="140"/>
+      <c r="D363" s="140"/>
+      <c r="E363" s="140"/>
+      <c r="F363" s="140"/>
+      <c r="G363" s="140"/>
+      <c r="H363" s="140"/>
+      <c r="I363" s="140"/>
     </row>
     <row r="364" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="28"/>
-      <c r="B364" s="141" t="s">
+      <c r="B364" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="C364" s="141"/>
-      <c r="D364" s="141"/>
-      <c r="E364" s="141"/>
-      <c r="F364" s="141"/>
-      <c r="G364" s="141"/>
-      <c r="H364" s="141"/>
-      <c r="I364" s="141"/>
+      <c r="C364" s="140"/>
+      <c r="D364" s="140"/>
+      <c r="E364" s="140"/>
+      <c r="F364" s="140"/>
+      <c r="G364" s="140"/>
+      <c r="H364" s="140"/>
+      <c r="I364" s="140"/>
     </row>
     <row r="365" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="28"/>
-      <c r="B365" s="141" t="s">
+      <c r="B365" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="C365" s="141"/>
-      <c r="D365" s="141"/>
-      <c r="E365" s="141"/>
-      <c r="F365" s="141"/>
-      <c r="G365" s="141"/>
-      <c r="H365" s="141"/>
-      <c r="I365" s="141"/>
+      <c r="C365" s="140"/>
+      <c r="D365" s="140"/>
+      <c r="E365" s="140"/>
+      <c r="F365" s="140"/>
+      <c r="G365" s="140"/>
+      <c r="H365" s="140"/>
+      <c r="I365" s="140"/>
     </row>
     <row r="366" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="28"/>
-      <c r="B366" s="141" t="s">
+      <c r="B366" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="C366" s="141"/>
-      <c r="D366" s="141"/>
-      <c r="E366" s="141"/>
-      <c r="F366" s="141"/>
-      <c r="G366" s="141"/>
-      <c r="H366" s="141"/>
-      <c r="I366" s="141"/>
+      <c r="C366" s="140"/>
+      <c r="D366" s="140"/>
+      <c r="E366" s="140"/>
+      <c r="F366" s="140"/>
+      <c r="G366" s="140"/>
+      <c r="H366" s="140"/>
+      <c r="I366" s="140"/>
     </row>
     <row r="367" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="28">
         <v>6</v>
       </c>
-      <c r="B367" s="141" t="s">
+      <c r="B367" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="C367" s="141"/>
-      <c r="D367" s="141"/>
-      <c r="E367" s="141"/>
-      <c r="F367" s="141"/>
-      <c r="G367" s="141"/>
-      <c r="H367" s="141"/>
-      <c r="I367" s="141"/>
+      <c r="C367" s="140"/>
+      <c r="D367" s="140"/>
+      <c r="E367" s="140"/>
+      <c r="F367" s="140"/>
+      <c r="G367" s="140"/>
+      <c r="H367" s="140"/>
+      <c r="I367" s="140"/>
     </row>
     <row r="368" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="28"/>
-      <c r="B368" s="141" t="s">
+      <c r="B368" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="C368" s="141"/>
-      <c r="D368" s="141"/>
-      <c r="E368" s="141"/>
-      <c r="F368" s="141"/>
-      <c r="G368" s="141"/>
-      <c r="H368" s="141"/>
-      <c r="I368" s="141"/>
+      <c r="C368" s="140"/>
+      <c r="D368" s="140"/>
+      <c r="E368" s="140"/>
+      <c r="F368" s="140"/>
+      <c r="G368" s="140"/>
+      <c r="H368" s="140"/>
+      <c r="I368" s="140"/>
     </row>
     <row r="369" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="28"/>
-      <c r="B369" s="141" t="s">
+      <c r="B369" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="C369" s="141"/>
-      <c r="D369" s="141"/>
-      <c r="E369" s="141"/>
-      <c r="F369" s="141"/>
-      <c r="G369" s="141"/>
-      <c r="H369" s="141"/>
-      <c r="I369" s="141"/>
+      <c r="C369" s="140"/>
+      <c r="D369" s="140"/>
+      <c r="E369" s="140"/>
+      <c r="F369" s="140"/>
+      <c r="G369" s="140"/>
+      <c r="H369" s="140"/>
+      <c r="I369" s="140"/>
     </row>
     <row r="370" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="28">
         <v>7</v>
       </c>
-      <c r="B370" s="141" t="s">
+      <c r="B370" s="140" t="s">
         <v>173</v>
       </c>
-      <c r="C370" s="141"/>
-      <c r="D370" s="141"/>
-      <c r="E370" s="141"/>
-      <c r="F370" s="141"/>
-      <c r="G370" s="141"/>
-      <c r="H370" s="141"/>
-      <c r="I370" s="141"/>
+      <c r="C370" s="140"/>
+      <c r="D370" s="140"/>
+      <c r="E370" s="140"/>
+      <c r="F370" s="140"/>
+      <c r="G370" s="140"/>
+      <c r="H370" s="140"/>
+      <c r="I370" s="140"/>
     </row>
     <row r="371" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="28">
         <v>8</v>
       </c>
-      <c r="B371" s="141" t="s">
+      <c r="B371" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="C371" s="141"/>
-      <c r="D371" s="141"/>
-      <c r="E371" s="141"/>
-      <c r="F371" s="141"/>
-      <c r="G371" s="141"/>
-      <c r="H371" s="141"/>
-      <c r="I371" s="141"/>
+      <c r="C371" s="140"/>
+      <c r="D371" s="140"/>
+      <c r="E371" s="140"/>
+      <c r="F371" s="140"/>
+      <c r="G371" s="140"/>
+      <c r="H371" s="140"/>
+      <c r="I371" s="140"/>
     </row>
     <row r="372" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="28"/>
-      <c r="B372" s="141" t="s">
+      <c r="B372" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="C372" s="141"/>
-      <c r="D372" s="141"/>
-      <c r="E372" s="141"/>
-      <c r="F372" s="141"/>
-      <c r="G372" s="141"/>
-      <c r="H372" s="141"/>
-      <c r="I372" s="141"/>
+      <c r="C372" s="140"/>
+      <c r="D372" s="140"/>
+      <c r="E372" s="140"/>
+      <c r="F372" s="140"/>
+      <c r="G372" s="140"/>
+      <c r="H372" s="140"/>
+      <c r="I372" s="140"/>
     </row>
     <row r="373" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="28"/>
-      <c r="B373" s="141" t="s">
+      <c r="B373" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="C373" s="141"/>
-      <c r="D373" s="141"/>
-      <c r="E373" s="141"/>
-      <c r="F373" s="141"/>
-      <c r="G373" s="141"/>
-      <c r="H373" s="141"/>
-      <c r="I373" s="141"/>
+      <c r="C373" s="140"/>
+      <c r="D373" s="140"/>
+      <c r="E373" s="140"/>
+      <c r="F373" s="140"/>
+      <c r="G373" s="140"/>
+      <c r="H373" s="140"/>
+      <c r="I373" s="140"/>
     </row>
     <row r="374" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="28"/>
-      <c r="B374" s="141" t="s">
+      <c r="B374" s="140" t="s">
         <v>176</v>
       </c>
-      <c r="C374" s="141"/>
-      <c r="D374" s="141"/>
-      <c r="E374" s="141"/>
-      <c r="F374" s="141"/>
-      <c r="G374" s="141"/>
-      <c r="H374" s="141"/>
-      <c r="I374" s="141"/>
+      <c r="C374" s="140"/>
+      <c r="D374" s="140"/>
+      <c r="E374" s="140"/>
+      <c r="F374" s="140"/>
+      <c r="G374" s="140"/>
+      <c r="H374" s="140"/>
+      <c r="I374" s="140"/>
     </row>
     <row r="375" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="28"/>
-      <c r="B375" s="141" t="s">
+      <c r="B375" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C375" s="141"/>
-      <c r="D375" s="141"/>
-      <c r="E375" s="141"/>
-      <c r="F375" s="141"/>
-      <c r="G375" s="141"/>
-      <c r="H375" s="141"/>
-      <c r="I375" s="141"/>
+      <c r="C375" s="140"/>
+      <c r="D375" s="140"/>
+      <c r="E375" s="140"/>
+      <c r="F375" s="140"/>
+      <c r="G375" s="140"/>
+      <c r="H375" s="140"/>
+      <c r="I375" s="140"/>
     </row>
     <row r="376" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="28"/>
-      <c r="B376" s="141" t="s">
+      <c r="B376" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="C376" s="141"/>
-      <c r="D376" s="141"/>
-      <c r="E376" s="141"/>
-      <c r="F376" s="141"/>
-      <c r="G376" s="141"/>
-      <c r="H376" s="141"/>
-      <c r="I376" s="141"/>
+      <c r="C376" s="140"/>
+      <c r="D376" s="140"/>
+      <c r="E376" s="140"/>
+      <c r="F376" s="140"/>
+      <c r="G376" s="140"/>
+      <c r="H376" s="140"/>
+      <c r="I376" s="140"/>
     </row>
     <row r="377" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="28"/>
-      <c r="B377" s="141" t="s">
+      <c r="B377" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="C377" s="141"/>
-      <c r="D377" s="141"/>
-      <c r="E377" s="141"/>
-      <c r="F377" s="141"/>
-      <c r="G377" s="141"/>
-      <c r="H377" s="141"/>
-      <c r="I377" s="141"/>
+      <c r="C377" s="140"/>
+      <c r="D377" s="140"/>
+      <c r="E377" s="140"/>
+      <c r="F377" s="140"/>
+      <c r="G377" s="140"/>
+      <c r="H377" s="140"/>
+      <c r="I377" s="140"/>
     </row>
     <row r="378" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="28">
         <v>9</v>
       </c>
-      <c r="B378" s="141" t="s">
+      <c r="B378" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C378" s="141"/>
-      <c r="D378" s="141"/>
-      <c r="E378" s="141"/>
-      <c r="F378" s="141"/>
-      <c r="G378" s="141"/>
-      <c r="H378" s="141"/>
-      <c r="I378" s="141"/>
+      <c r="C378" s="140"/>
+      <c r="D378" s="140"/>
+      <c r="E378" s="140"/>
+      <c r="F378" s="140"/>
+      <c r="G378" s="140"/>
+      <c r="H378" s="140"/>
+      <c r="I378" s="140"/>
     </row>
     <row r="379" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="28">
         <v>10</v>
       </c>
-      <c r="B379" s="141" t="s">
+      <c r="B379" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C379" s="141"/>
-      <c r="D379" s="141"/>
-      <c r="E379" s="141"/>
-      <c r="F379" s="141"/>
-      <c r="G379" s="141"/>
-      <c r="H379" s="141"/>
-      <c r="I379" s="141"/>
+      <c r="C379" s="140"/>
+      <c r="D379" s="140"/>
+      <c r="E379" s="140"/>
+      <c r="F379" s="140"/>
+      <c r="G379" s="140"/>
+      <c r="H379" s="140"/>
+      <c r="I379" s="140"/>
     </row>
     <row r="380" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="28"/>
-      <c r="B380" s="141" t="s">
+      <c r="B380" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C380" s="141"/>
-      <c r="D380" s="141"/>
-      <c r="E380" s="141"/>
-      <c r="F380" s="141"/>
-      <c r="G380" s="141"/>
-      <c r="H380" s="141"/>
-      <c r="I380" s="141"/>
+      <c r="C380" s="140"/>
+      <c r="D380" s="140"/>
+      <c r="E380" s="140"/>
+      <c r="F380" s="140"/>
+      <c r="G380" s="140"/>
+      <c r="H380" s="140"/>
+      <c r="I380" s="140"/>
     </row>
     <row r="381" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="28"/>
-      <c r="B381" s="141" t="s">
+      <c r="B381" s="140" t="s">
         <v>183</v>
       </c>
-      <c r="C381" s="141"/>
-      <c r="D381" s="141"/>
-      <c r="E381" s="141"/>
-      <c r="F381" s="141"/>
-      <c r="G381" s="141"/>
-      <c r="H381" s="141"/>
-      <c r="I381" s="141"/>
+      <c r="C381" s="140"/>
+      <c r="D381" s="140"/>
+      <c r="E381" s="140"/>
+      <c r="F381" s="140"/>
+      <c r="G381" s="140"/>
+      <c r="H381" s="140"/>
+      <c r="I381" s="140"/>
     </row>
     <row r="382" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="28"/>
-      <c r="B382" s="141" t="s">
+      <c r="B382" s="140" t="s">
         <v>184</v>
       </c>
-      <c r="C382" s="141"/>
-      <c r="D382" s="141"/>
-      <c r="E382" s="141"/>
-      <c r="F382" s="141"/>
-      <c r="G382" s="141"/>
-      <c r="H382" s="141"/>
-      <c r="I382" s="141"/>
+      <c r="C382" s="140"/>
+      <c r="D382" s="140"/>
+      <c r="E382" s="140"/>
+      <c r="F382" s="140"/>
+      <c r="G382" s="140"/>
+      <c r="H382" s="140"/>
+      <c r="I382" s="140"/>
     </row>
     <row r="383" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="28"/>
-      <c r="B383" s="141" t="s">
+      <c r="B383" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="C383" s="141"/>
-      <c r="D383" s="141"/>
-      <c r="E383" s="141"/>
-      <c r="F383" s="141"/>
-      <c r="G383" s="141"/>
-      <c r="H383" s="141"/>
-      <c r="I383" s="141"/>
+      <c r="C383" s="140"/>
+      <c r="D383" s="140"/>
+      <c r="E383" s="140"/>
+      <c r="F383" s="140"/>
+      <c r="G383" s="140"/>
+      <c r="H383" s="140"/>
+      <c r="I383" s="140"/>
     </row>
     <row r="384" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="28">
         <v>11</v>
       </c>
-      <c r="B384" s="141" t="s">
+      <c r="B384" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C384" s="141"/>
-      <c r="D384" s="141"/>
-      <c r="E384" s="141"/>
-      <c r="F384" s="141"/>
-      <c r="G384" s="141"/>
-      <c r="H384" s="141"/>
-      <c r="I384" s="141"/>
+      <c r="C384" s="140"/>
+      <c r="D384" s="140"/>
+      <c r="E384" s="140"/>
+      <c r="F384" s="140"/>
+      <c r="G384" s="140"/>
+      <c r="H384" s="140"/>
+      <c r="I384" s="140"/>
     </row>
     <row r="385" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="28"/>
-      <c r="B385" s="141" t="s">
+      <c r="B385" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="C385" s="141"/>
-      <c r="D385" s="141"/>
-      <c r="E385" s="141"/>
-      <c r="F385" s="141"/>
-      <c r="G385" s="141"/>
-      <c r="H385" s="141"/>
-      <c r="I385" s="141"/>
+      <c r="C385" s="140"/>
+      <c r="D385" s="140"/>
+      <c r="E385" s="140"/>
+      <c r="F385" s="140"/>
+      <c r="G385" s="140"/>
+      <c r="H385" s="140"/>
+      <c r="I385" s="140"/>
     </row>
     <row r="386" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="28"/>
@@ -8769,236 +8593,236 @@
     </row>
     <row r="387" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="28"/>
-      <c r="B387" s="141" t="s">
+      <c r="B387" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="C387" s="141"/>
-      <c r="D387" s="141"/>
-      <c r="E387" s="141"/>
-      <c r="F387" s="141"/>
-      <c r="G387" s="141"/>
-      <c r="H387" s="141"/>
-      <c r="I387" s="141"/>
+      <c r="C387" s="140"/>
+      <c r="D387" s="140"/>
+      <c r="E387" s="140"/>
+      <c r="F387" s="140"/>
+      <c r="G387" s="140"/>
+      <c r="H387" s="140"/>
+      <c r="I387" s="140"/>
     </row>
     <row r="388" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="28">
         <v>12</v>
       </c>
-      <c r="B388" s="141" t="s">
+      <c r="B388" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="C388" s="141"/>
-      <c r="D388" s="141"/>
-      <c r="E388" s="141"/>
-      <c r="F388" s="141"/>
-      <c r="G388" s="141"/>
-      <c r="H388" s="141"/>
-      <c r="I388" s="141"/>
+      <c r="C388" s="140"/>
+      <c r="D388" s="140"/>
+      <c r="E388" s="140"/>
+      <c r="F388" s="140"/>
+      <c r="G388" s="140"/>
+      <c r="H388" s="140"/>
+      <c r="I388" s="140"/>
     </row>
     <row r="389" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="28"/>
-      <c r="B389" s="141" t="s">
+      <c r="B389" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="C389" s="141"/>
-      <c r="D389" s="141"/>
-      <c r="E389" s="141"/>
-      <c r="F389" s="141"/>
-      <c r="G389" s="141"/>
-      <c r="H389" s="141"/>
-      <c r="I389" s="141"/>
+      <c r="C389" s="140"/>
+      <c r="D389" s="140"/>
+      <c r="E389" s="140"/>
+      <c r="F389" s="140"/>
+      <c r="G389" s="140"/>
+      <c r="H389" s="140"/>
+      <c r="I389" s="140"/>
     </row>
     <row r="390" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="28"/>
-      <c r="B390" s="141" t="s">
+      <c r="B390" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="C390" s="141"/>
-      <c r="D390" s="141"/>
-      <c r="E390" s="141"/>
-      <c r="F390" s="141"/>
-      <c r="G390" s="141"/>
-      <c r="H390" s="141"/>
-      <c r="I390" s="141"/>
+      <c r="C390" s="140"/>
+      <c r="D390" s="140"/>
+      <c r="E390" s="140"/>
+      <c r="F390" s="140"/>
+      <c r="G390" s="140"/>
+      <c r="H390" s="140"/>
+      <c r="I390" s="140"/>
     </row>
     <row r="391" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="28"/>
-      <c r="B391" s="141" t="s">
+      <c r="B391" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="C391" s="141"/>
-      <c r="D391" s="141"/>
-      <c r="E391" s="141"/>
-      <c r="F391" s="141"/>
-      <c r="G391" s="141"/>
-      <c r="H391" s="141"/>
-      <c r="I391" s="141"/>
+      <c r="C391" s="140"/>
+      <c r="D391" s="140"/>
+      <c r="E391" s="140"/>
+      <c r="F391" s="140"/>
+      <c r="G391" s="140"/>
+      <c r="H391" s="140"/>
+      <c r="I391" s="140"/>
     </row>
     <row r="392" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="28"/>
-      <c r="B392" s="141" t="s">
+      <c r="B392" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="C392" s="141"/>
-      <c r="D392" s="141"/>
-      <c r="E392" s="141"/>
-      <c r="F392" s="141"/>
-      <c r="G392" s="141"/>
-      <c r="H392" s="141"/>
-      <c r="I392" s="141"/>
+      <c r="C392" s="140"/>
+      <c r="D392" s="140"/>
+      <c r="E392" s="140"/>
+      <c r="F392" s="140"/>
+      <c r="G392" s="140"/>
+      <c r="H392" s="140"/>
+      <c r="I392" s="140"/>
     </row>
     <row r="393" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="28">
         <v>13</v>
       </c>
-      <c r="B393" s="141" t="s">
+      <c r="B393" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="C393" s="141"/>
-      <c r="D393" s="141"/>
-      <c r="E393" s="141"/>
-      <c r="F393" s="141"/>
-      <c r="G393" s="141"/>
-      <c r="H393" s="141"/>
-      <c r="I393" s="141"/>
+      <c r="C393" s="140"/>
+      <c r="D393" s="140"/>
+      <c r="E393" s="140"/>
+      <c r="F393" s="140"/>
+      <c r="G393" s="140"/>
+      <c r="H393" s="140"/>
+      <c r="I393" s="140"/>
     </row>
     <row r="394" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="28"/>
-      <c r="B394" s="141" t="s">
+      <c r="B394" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="C394" s="141"/>
-      <c r="D394" s="141"/>
-      <c r="E394" s="141"/>
-      <c r="F394" s="141"/>
-      <c r="G394" s="141"/>
-      <c r="H394" s="141"/>
-      <c r="I394" s="141"/>
+      <c r="C394" s="140"/>
+      <c r="D394" s="140"/>
+      <c r="E394" s="140"/>
+      <c r="F394" s="140"/>
+      <c r="G394" s="140"/>
+      <c r="H394" s="140"/>
+      <c r="I394" s="140"/>
     </row>
     <row r="395" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="28"/>
-      <c r="B395" s="141" t="s">
+      <c r="B395" s="140" t="s">
         <v>194</v>
       </c>
-      <c r="C395" s="141"/>
-      <c r="D395" s="141"/>
-      <c r="E395" s="141"/>
-      <c r="F395" s="141"/>
-      <c r="G395" s="141"/>
-      <c r="H395" s="141"/>
-      <c r="I395" s="141"/>
+      <c r="C395" s="140"/>
+      <c r="D395" s="140"/>
+      <c r="E395" s="140"/>
+      <c r="F395" s="140"/>
+      <c r="G395" s="140"/>
+      <c r="H395" s="140"/>
+      <c r="I395" s="140"/>
     </row>
     <row r="396" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="28">
         <v>14</v>
       </c>
-      <c r="B396" s="141" t="s">
+      <c r="B396" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="C396" s="141"/>
-      <c r="D396" s="141"/>
-      <c r="E396" s="141"/>
-      <c r="F396" s="141"/>
-      <c r="G396" s="141"/>
-      <c r="H396" s="141"/>
-      <c r="I396" s="141"/>
+      <c r="C396" s="140"/>
+      <c r="D396" s="140"/>
+      <c r="E396" s="140"/>
+      <c r="F396" s="140"/>
+      <c r="G396" s="140"/>
+      <c r="H396" s="140"/>
+      <c r="I396" s="140"/>
     </row>
     <row r="397" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="28"/>
-      <c r="B397" s="141" t="s">
+      <c r="B397" s="140" t="s">
         <v>196</v>
       </c>
-      <c r="C397" s="141"/>
-      <c r="D397" s="141"/>
-      <c r="E397" s="141"/>
-      <c r="F397" s="141"/>
-      <c r="G397" s="141"/>
-      <c r="H397" s="141"/>
-      <c r="I397" s="141"/>
+      <c r="C397" s="140"/>
+      <c r="D397" s="140"/>
+      <c r="E397" s="140"/>
+      <c r="F397" s="140"/>
+      <c r="G397" s="140"/>
+      <c r="H397" s="140"/>
+      <c r="I397" s="140"/>
     </row>
     <row r="398" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="28"/>
-      <c r="B398" s="141" t="s">
+      <c r="B398" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="C398" s="141"/>
-      <c r="D398" s="141"/>
-      <c r="E398" s="141"/>
-      <c r="F398" s="141"/>
-      <c r="G398" s="141"/>
-      <c r="H398" s="141"/>
-      <c r="I398" s="141"/>
+      <c r="C398" s="140"/>
+      <c r="D398" s="140"/>
+      <c r="E398" s="140"/>
+      <c r="F398" s="140"/>
+      <c r="G398" s="140"/>
+      <c r="H398" s="140"/>
+      <c r="I398" s="140"/>
     </row>
     <row r="399" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="28"/>
-      <c r="B399" s="141" t="s">
+      <c r="B399" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="C399" s="141"/>
-      <c r="D399" s="141"/>
-      <c r="E399" s="141"/>
-      <c r="F399" s="141"/>
-      <c r="G399" s="141"/>
-      <c r="H399" s="141"/>
-      <c r="I399" s="141"/>
+      <c r="C399" s="140"/>
+      <c r="D399" s="140"/>
+      <c r="E399" s="140"/>
+      <c r="F399" s="140"/>
+      <c r="G399" s="140"/>
+      <c r="H399" s="140"/>
+      <c r="I399" s="140"/>
     </row>
     <row r="400" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="28"/>
-      <c r="B400" s="141" t="s">
+      <c r="B400" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="C400" s="141"/>
-      <c r="D400" s="141"/>
-      <c r="E400" s="141"/>
-      <c r="F400" s="141"/>
-      <c r="G400" s="141"/>
-      <c r="H400" s="141"/>
-      <c r="I400" s="141"/>
+      <c r="C400" s="140"/>
+      <c r="D400" s="140"/>
+      <c r="E400" s="140"/>
+      <c r="F400" s="140"/>
+      <c r="G400" s="140"/>
+      <c r="H400" s="140"/>
+      <c r="I400" s="140"/>
     </row>
     <row r="401" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="28">
         <v>15</v>
       </c>
-      <c r="B401" s="141" t="s">
+      <c r="B401" s="140" t="s">
         <v>199</v>
       </c>
-      <c r="C401" s="141"/>
-      <c r="D401" s="141"/>
-      <c r="E401" s="141"/>
-      <c r="F401" s="141"/>
-      <c r="G401" s="141"/>
-      <c r="H401" s="141"/>
-      <c r="I401" s="141"/>
+      <c r="C401" s="140"/>
+      <c r="D401" s="140"/>
+      <c r="E401" s="140"/>
+      <c r="F401" s="140"/>
+      <c r="G401" s="140"/>
+      <c r="H401" s="140"/>
+      <c r="I401" s="140"/>
     </row>
     <row r="402" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="28">
         <v>16</v>
       </c>
-      <c r="B402" s="141" t="s">
+      <c r="B402" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="C402" s="141"/>
-      <c r="D402" s="141"/>
-      <c r="E402" s="141"/>
-      <c r="F402" s="141"/>
-      <c r="G402" s="141"/>
-      <c r="H402" s="141"/>
-      <c r="I402" s="141"/>
+      <c r="C402" s="140"/>
+      <c r="D402" s="140"/>
+      <c r="E402" s="140"/>
+      <c r="F402" s="140"/>
+      <c r="G402" s="140"/>
+      <c r="H402" s="140"/>
+      <c r="I402" s="140"/>
     </row>
     <row r="403" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="28">
         <v>17</v>
       </c>
-      <c r="B403" s="141" t="s">
+      <c r="B403" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="C403" s="141"/>
-      <c r="D403" s="141"/>
-      <c r="E403" s="141"/>
-      <c r="F403" s="141"/>
-      <c r="G403" s="141"/>
-      <c r="H403" s="141"/>
-      <c r="I403" s="141"/>
+      <c r="C403" s="140"/>
+      <c r="D403" s="140"/>
+      <c r="E403" s="140"/>
+      <c r="F403" s="140"/>
+      <c r="G403" s="140"/>
+      <c r="H403" s="140"/>
+      <c r="I403" s="140"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="52"/>
@@ -9016,84 +8840,23 @@
       <c r="A408" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="B324:G324"/>
-    <mergeCell ref="B325:G325"/>
-    <mergeCell ref="B321:C321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="B318:C319"/>
-    <mergeCell ref="D318:D319"/>
-    <mergeCell ref="E318:E319"/>
-    <mergeCell ref="F318:F319"/>
-    <mergeCell ref="B320:C320"/>
-    <mergeCell ref="G318:G319"/>
-    <mergeCell ref="H318:H319"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="A56:I59"/>
-    <mergeCell ref="B285:I285"/>
-    <mergeCell ref="B277:I278"/>
-    <mergeCell ref="B310:I313"/>
-    <mergeCell ref="B298:I298"/>
-    <mergeCell ref="B316:I317"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D128:I128"/>
-    <mergeCell ref="D129:I129"/>
-    <mergeCell ref="M56:T59"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="M238:T238"/>
-    <mergeCell ref="M180:T180"/>
-    <mergeCell ref="M227:T227"/>
-    <mergeCell ref="M231:T231"/>
-    <mergeCell ref="M235:T235"/>
-    <mergeCell ref="M237:T237"/>
-    <mergeCell ref="Q54:X54"/>
-    <mergeCell ref="B91:I93"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B86:I87"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A53:I54"/>
-    <mergeCell ref="B120:C124"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="B125:C129"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="B403:I403"/>
-    <mergeCell ref="B392:I392"/>
-    <mergeCell ref="B393:I393"/>
-    <mergeCell ref="B394:I394"/>
-    <mergeCell ref="B395:I395"/>
-    <mergeCell ref="B396:I396"/>
-    <mergeCell ref="B397:I397"/>
-    <mergeCell ref="B398:I398"/>
-    <mergeCell ref="B399:I399"/>
-    <mergeCell ref="B400:I400"/>
-    <mergeCell ref="B401:I401"/>
-    <mergeCell ref="B402:I402"/>
-    <mergeCell ref="B391:I391"/>
-    <mergeCell ref="B378:I378"/>
-    <mergeCell ref="B379:I379"/>
-    <mergeCell ref="B380:I380"/>
-    <mergeCell ref="B381:I381"/>
-    <mergeCell ref="B382:I382"/>
-    <mergeCell ref="B383:I383"/>
-    <mergeCell ref="B384:I384"/>
-    <mergeCell ref="B385:I385"/>
-    <mergeCell ref="B387:I387"/>
-    <mergeCell ref="B388:I388"/>
-    <mergeCell ref="B389:I389"/>
-    <mergeCell ref="B390:I390"/>
+  <mergeCells count="102">
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="B303:I303"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B271:I274"/>
+    <mergeCell ref="A61:I62"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="B359:I359"/>
     <mergeCell ref="B360:I360"/>
     <mergeCell ref="B361:I361"/>
@@ -9115,30 +8878,71 @@
     <mergeCell ref="B374:I374"/>
     <mergeCell ref="B375:I375"/>
     <mergeCell ref="B376:I376"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="B303:I303"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B271:I274"/>
-    <mergeCell ref="A61:I62"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B114:C116"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="B117:C119"/>
-    <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="B391:I391"/>
+    <mergeCell ref="B378:I378"/>
+    <mergeCell ref="B379:I379"/>
+    <mergeCell ref="B380:I380"/>
+    <mergeCell ref="B381:I381"/>
+    <mergeCell ref="B382:I382"/>
+    <mergeCell ref="B383:I383"/>
+    <mergeCell ref="B384:I384"/>
+    <mergeCell ref="B385:I385"/>
+    <mergeCell ref="B387:I387"/>
+    <mergeCell ref="B388:I388"/>
+    <mergeCell ref="B389:I389"/>
+    <mergeCell ref="B390:I390"/>
+    <mergeCell ref="B403:I403"/>
+    <mergeCell ref="B392:I392"/>
+    <mergeCell ref="B393:I393"/>
+    <mergeCell ref="B394:I394"/>
+    <mergeCell ref="B395:I395"/>
+    <mergeCell ref="B396:I396"/>
+    <mergeCell ref="B397:I397"/>
+    <mergeCell ref="B398:I398"/>
+    <mergeCell ref="B399:I399"/>
+    <mergeCell ref="B400:I400"/>
+    <mergeCell ref="B401:I401"/>
+    <mergeCell ref="B402:I402"/>
+    <mergeCell ref="M56:T59"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="M238:T238"/>
+    <mergeCell ref="M180:T180"/>
+    <mergeCell ref="M227:T227"/>
+    <mergeCell ref="M231:T231"/>
+    <mergeCell ref="M235:T235"/>
+    <mergeCell ref="M237:T237"/>
+    <mergeCell ref="Q54:X54"/>
+    <mergeCell ref="B91:I93"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B86:I87"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A53:I54"/>
+    <mergeCell ref="H318:H319"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A56:I59"/>
+    <mergeCell ref="B285:I285"/>
+    <mergeCell ref="B277:I278"/>
+    <mergeCell ref="B310:I313"/>
+    <mergeCell ref="B298:I298"/>
+    <mergeCell ref="B316:I317"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="B324:G324"/>
+    <mergeCell ref="B325:G325"/>
+    <mergeCell ref="B321:C321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="B318:C319"/>
+    <mergeCell ref="D318:D319"/>
+    <mergeCell ref="E318:E319"/>
+    <mergeCell ref="F318:F319"/>
+    <mergeCell ref="B320:C320"/>
+    <mergeCell ref="G318:G319"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -9220,21 +9024,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9250,24 +9054,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="206"/>
-      <c r="I7" s="206"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="206"/>
-      <c r="I8" s="206"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9290,46 +9094,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="208" t="s">
+      <c r="B15" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="208"/>
-      <c r="D15" s="208"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="208" t="s">
+      <c r="F15" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="212" t="s">
+      <c r="B16" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="213"/>
-      <c r="D16" s="213"/>
-      <c r="F16" s="212" t="s">
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="F16" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="213"/>
-      <c r="H16" s="213"/>
-      <c r="I16" s="213"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="208" t="s">
+      <c r="A18" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="208"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -9343,43 +9147,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="211" t="s">
+      <c r="A20" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="211"/>
-      <c r="C20" s="211"/>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="211"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="209" t="s">
+      <c r="A22" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="209"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="209"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -9398,17 +9202,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="207" t="s">
+      <c r="A25" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="207"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="207"/>
-      <c r="E25" s="207"/>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="207"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -9419,257 +9223,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="168" t="s">
+      <c r="B28" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="165" t="s">
+      <c r="B30" s="158" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="165"/>
-      <c r="D30" s="204" t="s">
+      <c r="C30" s="158"/>
+      <c r="D30" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="205"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="205"/>
-      <c r="H31" s="205"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="204" t="s">
+      <c r="C33" s="158"/>
+      <c r="D33" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="205"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="205"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="204" t="s">
+      <c r="C36" s="158"/>
+      <c r="D36" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="165"/>
-      <c r="C38" s="165"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="165"/>
-      <c r="D39" s="204" t="s">
+      <c r="C39" s="158"/>
+      <c r="D39" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="205"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="205"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="165"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="205"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="167" t="s">
+      <c r="A44" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="167"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="167"/>
+      <c r="A45" s="160"/>
+      <c r="B45" s="160"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="160"/>
+      <c r="F45" s="160"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="160"/>
+      <c r="I45" s="160"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="169" t="s">
+      <c r="B47" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="170"/>
-      <c r="D47" s="169" t="s">
+      <c r="C47" s="162"/>
+      <c r="D47" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="173"/>
-      <c r="F47" s="173"/>
-      <c r="G47" s="173"/>
-      <c r="H47" s="174"/>
+      <c r="E47" s="165"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="165"/>
+      <c r="H47" s="166"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="171"/>
-      <c r="C48" s="172"/>
-      <c r="D48" s="175"/>
-      <c r="E48" s="176"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="177"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="169"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="183" t="s">
+      <c r="B49" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="184"/>
-      <c r="D49" s="187" t="s">
+      <c r="C49" s="176"/>
+      <c r="D49" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="188"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="189"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="180"/>
+      <c r="G49" s="180"/>
+      <c r="H49" s="181"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="185"/>
-      <c r="C50" s="186"/>
-      <c r="D50" s="190"/>
-      <c r="E50" s="191"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="191"/>
-      <c r="H50" s="192"/>
+      <c r="B50" s="177"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="183"/>
+      <c r="H50" s="184"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="183" t="s">
+      <c r="B51" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="184"/>
-      <c r="D51" s="193" t="s">
+      <c r="C51" s="176"/>
+      <c r="D51" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="194"/>
-      <c r="F51" s="194"/>
-      <c r="G51" s="194"/>
-      <c r="H51" s="195"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="H51" s="187"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="202"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="196"/>
-      <c r="E52" s="197"/>
-      <c r="F52" s="197"/>
-      <c r="G52" s="197"/>
-      <c r="H52" s="198"/>
+      <c r="B52" s="194"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="189"/>
+      <c r="F52" s="189"/>
+      <c r="G52" s="189"/>
+      <c r="H52" s="190"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="185"/>
-      <c r="C53" s="186"/>
-      <c r="D53" s="199"/>
-      <c r="E53" s="200"/>
-      <c r="F53" s="200"/>
-      <c r="G53" s="200"/>
-      <c r="H53" s="201"/>
+      <c r="B53" s="177"/>
+      <c r="C53" s="178"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="192"/>
+      <c r="F53" s="192"/>
+      <c r="G53" s="192"/>
+      <c r="H53" s="193"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="181" t="s">
+      <c r="B54" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="182"/>
-      <c r="D54" s="178" t="s">
+      <c r="C54" s="174"/>
+      <c r="D54" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="179"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="179"/>
-      <c r="H54" s="180"/>
+      <c r="E54" s="171"/>
+      <c r="F54" s="171"/>
+      <c r="G54" s="171"/>
+      <c r="H54" s="172"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -9707,110 +9511,90 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="168" t="s">
+      <c r="B61" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="168"/>
-      <c r="D61" s="168"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="168" t="s">
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="168"/>
-      <c r="H61" s="168"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="168"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="165" t="s">
+      <c r="B63" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165" t="s">
+      <c r="C63" s="158"/>
+      <c r="D63" s="158"/>
+      <c r="E63" s="158"/>
+      <c r="F63" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="158"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="165"/>
-      <c r="F64" s="165"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="165" t="s">
+      <c r="B65" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165" t="s">
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="165"/>
-      <c r="G66" s="165"/>
-      <c r="H66" s="165"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="158"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="166" t="s">
+      <c r="A73" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="166"/>
-      <c r="C73" s="166"/>
+      <c r="B73" s="159"/>
+      <c r="C73" s="159"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="167"/>
-      <c r="B74" s="167"/>
-      <c r="C74" s="167"/>
+      <c r="A74" s="160"/>
+      <c r="B74" s="160"/>
+      <c r="C74" s="160"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="167"/>
-      <c r="B75" s="167"/>
-      <c r="C75" s="167"/>
+      <c r="A75" s="160"/>
+      <c r="B75" s="160"/>
+      <c r="C75" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H3:I8"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H32"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="D33:H35"/>
-    <mergeCell ref="D36:H38"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="B30:C32"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="B36:C38"/>
-    <mergeCell ref="B39:C40"/>
     <mergeCell ref="B65:E66"/>
     <mergeCell ref="F63:H64"/>
     <mergeCell ref="F65:H66"/>
@@ -9827,6 +9611,26 @@
     <mergeCell ref="D49:H50"/>
     <mergeCell ref="D51:H53"/>
     <mergeCell ref="B51:C53"/>
+    <mergeCell ref="D33:H35"/>
+    <mergeCell ref="D36:H38"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="B36:C38"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="H3:I8"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H32"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9945,39 +9749,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="214" t="s">
+      <c r="D13" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="214"/>
+      <c r="E13" s="203"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="215" t="s">
+      <c r="G13" s="219" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="215"/>
-      <c r="I13" s="215"/>
+      <c r="H13" s="219"/>
+      <c r="I13" s="219"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="216" t="s">
+      <c r="D14" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="216"/>
-      <c r="G14" s="217" t="s">
+      <c r="E14" s="220"/>
+      <c r="G14" s="221" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="217"/>
-      <c r="I14" s="217"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="215" t="s">
+      <c r="D15" s="219" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="219"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -9987,265 +9791,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="211"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="222" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="219" t="s">
+      <c r="B19" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="223"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="219" t="s">
+      <c r="B20" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="223"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="145" t="s">
+      <c r="C24" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="220" t="s">
+      <c r="D26" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="222"/>
+      <c r="E26" s="217"/>
+      <c r="F26" s="217"/>
+      <c r="G26" s="217"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="218"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="223" t="s">
+      <c r="C27" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="226" t="s">
+      <c r="D27" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="227"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="228"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="209"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="224"/>
-      <c r="D28" s="229"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="230"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="215"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="225"/>
-      <c r="D29" s="231"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="232"/>
-      <c r="G29" s="232"/>
-      <c r="H29" s="232"/>
-      <c r="I29" s="233"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="212"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="226" t="s">
+      <c r="D30" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="228"/>
+      <c r="E30" s="208"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="209"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="224"/>
-      <c r="D31" s="229"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="230"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="215"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="225"/>
-      <c r="D32" s="231"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="232"/>
-      <c r="G32" s="232"/>
-      <c r="H32" s="232"/>
-      <c r="I32" s="233"/>
+      <c r="C32" s="206"/>
+      <c r="D32" s="210"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="212"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="223" t="s">
+      <c r="C33" s="205" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="226" t="s">
+      <c r="D33" s="207" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="228"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="209"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="224"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="230"/>
+      <c r="C34" s="213"/>
+      <c r="D34" s="214"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="225"/>
-      <c r="D35" s="231"/>
-      <c r="E35" s="232"/>
-      <c r="F35" s="232"/>
-      <c r="G35" s="232"/>
-      <c r="H35" s="232"/>
-      <c r="I35" s="233"/>
+      <c r="C35" s="206"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="212"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="223" t="s">
+      <c r="C36" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="226" t="s">
+      <c r="D36" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="227"/>
-      <c r="F36" s="227"/>
-      <c r="G36" s="227"/>
-      <c r="H36" s="227"/>
-      <c r="I36" s="228"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="209"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="224"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="230"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="215"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="225"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="232"/>
-      <c r="F38" s="232"/>
-      <c r="G38" s="232"/>
-      <c r="H38" s="232"/>
-      <c r="I38" s="233"/>
+      <c r="C38" s="206"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="212"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="145" t="s">
+      <c r="L39" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="145"/>
-      <c r="N39" s="145"/>
-      <c r="O39" s="145"/>
-      <c r="P39" s="145"/>
-      <c r="Q39" s="145"/>
-      <c r="R39" s="145"/>
-      <c r="S39" s="145"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="138"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="145" t="s">
+      <c r="L42" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="145"/>
-      <c r="N42" s="145"/>
-      <c r="O42" s="145"/>
-      <c r="P42" s="145"/>
-      <c r="Q42" s="145"/>
-      <c r="R42" s="145"/>
-      <c r="S42" s="145"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
+      <c r="Q42" s="138"/>
+      <c r="R42" s="138"/>
+      <c r="S42" s="138"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -10286,157 +10090,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="220" t="s">
+      <c r="D58" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="221"/>
-      <c r="F58" s="221"/>
-      <c r="G58" s="221"/>
-      <c r="H58" s="221"/>
-      <c r="I58" s="222"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="217"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="217"/>
+      <c r="I58" s="218"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="223" t="s">
+      <c r="C59" s="205" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="226" t="s">
+      <c r="D59" s="207" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="227"/>
-      <c r="F59" s="227"/>
-      <c r="G59" s="227"/>
-      <c r="H59" s="227"/>
-      <c r="I59" s="228"/>
+      <c r="E59" s="208"/>
+      <c r="F59" s="208"/>
+      <c r="G59" s="208"/>
+      <c r="H59" s="208"/>
+      <c r="I59" s="209"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="225"/>
-      <c r="D60" s="231"/>
-      <c r="E60" s="232"/>
-      <c r="F60" s="232"/>
-      <c r="G60" s="232"/>
-      <c r="H60" s="232"/>
-      <c r="I60" s="233"/>
+      <c r="C60" s="206"/>
+      <c r="D60" s="210"/>
+      <c r="E60" s="211"/>
+      <c r="F60" s="211"/>
+      <c r="G60" s="211"/>
+      <c r="H60" s="211"/>
+      <c r="I60" s="212"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="223" t="s">
+      <c r="C61" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="226" t="s">
+      <c r="D61" s="207" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="227"/>
-      <c r="F61" s="227"/>
-      <c r="G61" s="227"/>
-      <c r="H61" s="227"/>
-      <c r="I61" s="228"/>
+      <c r="E61" s="208"/>
+      <c r="F61" s="208"/>
+      <c r="G61" s="208"/>
+      <c r="H61" s="208"/>
+      <c r="I61" s="209"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="225"/>
-      <c r="D62" s="231"/>
-      <c r="E62" s="232"/>
-      <c r="F62" s="232"/>
-      <c r="G62" s="232"/>
-      <c r="H62" s="232"/>
-      <c r="I62" s="233"/>
+      <c r="C62" s="206"/>
+      <c r="D62" s="210"/>
+      <c r="E62" s="211"/>
+      <c r="F62" s="211"/>
+      <c r="G62" s="211"/>
+      <c r="H62" s="211"/>
+      <c r="I62" s="212"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="223" t="s">
+      <c r="C63" s="205" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="226" t="s">
+      <c r="D63" s="207" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="227"/>
-      <c r="F63" s="227"/>
-      <c r="G63" s="227"/>
-      <c r="H63" s="227"/>
-      <c r="I63" s="228"/>
+      <c r="E63" s="208"/>
+      <c r="F63" s="208"/>
+      <c r="G63" s="208"/>
+      <c r="H63" s="208"/>
+      <c r="I63" s="209"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="225"/>
-      <c r="D64" s="231"/>
-      <c r="E64" s="232"/>
-      <c r="F64" s="232"/>
-      <c r="G64" s="232"/>
-      <c r="H64" s="232"/>
-      <c r="I64" s="233"/>
+      <c r="C64" s="206"/>
+      <c r="D64" s="210"/>
+      <c r="E64" s="211"/>
+      <c r="F64" s="211"/>
+      <c r="G64" s="211"/>
+      <c r="H64" s="211"/>
+      <c r="I64" s="212"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="223" t="s">
+      <c r="C65" s="205" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="226" t="s">
+      <c r="D65" s="207" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="227"/>
-      <c r="F65" s="227"/>
-      <c r="G65" s="227"/>
-      <c r="H65" s="227"/>
-      <c r="I65" s="228"/>
+      <c r="E65" s="208"/>
+      <c r="F65" s="208"/>
+      <c r="G65" s="208"/>
+      <c r="H65" s="208"/>
+      <c r="I65" s="209"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="224"/>
-      <c r="D66" s="229"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="230"/>
+      <c r="C66" s="213"/>
+      <c r="D66" s="214"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="131"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="215"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="225"/>
-      <c r="D67" s="231"/>
-      <c r="E67" s="232"/>
-      <c r="F67" s="232"/>
-      <c r="G67" s="232"/>
-      <c r="H67" s="232"/>
-      <c r="I67" s="233"/>
+      <c r="C67" s="206"/>
+      <c r="D67" s="210"/>
+      <c r="E67" s="211"/>
+      <c r="F67" s="211"/>
+      <c r="G67" s="211"/>
+      <c r="H67" s="211"/>
+      <c r="I67" s="212"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="223" t="s">
+      <c r="C68" s="205" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="226" t="s">
+      <c r="D68" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="227"/>
-      <c r="F68" s="227"/>
-      <c r="G68" s="227"/>
-      <c r="H68" s="227"/>
-      <c r="I68" s="228"/>
+      <c r="E68" s="208"/>
+      <c r="F68" s="208"/>
+      <c r="G68" s="208"/>
+      <c r="H68" s="208"/>
+      <c r="I68" s="209"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="224"/>
-      <c r="D69" s="229"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="127"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="127"/>
-      <c r="I69" s="230"/>
+      <c r="C69" s="213"/>
+      <c r="D69" s="214"/>
+      <c r="E69" s="131"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="131"/>
+      <c r="I69" s="215"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="225"/>
-      <c r="D70" s="231"/>
-      <c r="E70" s="232"/>
-      <c r="F70" s="232"/>
-      <c r="G70" s="232"/>
-      <c r="H70" s="232"/>
-      <c r="I70" s="233"/>
+      <c r="C70" s="206"/>
+      <c r="D70" s="210"/>
+      <c r="E70" s="211"/>
+      <c r="F70" s="211"/>
+      <c r="G70" s="211"/>
+      <c r="H70" s="211"/>
+      <c r="I70" s="212"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -10447,53 +10251,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="235" t="s">
+      <c r="D74" s="197" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="236"/>
-      <c r="F74" s="236"/>
-      <c r="G74" s="236"/>
-      <c r="H74" s="236"/>
-      <c r="I74" s="237"/>
+      <c r="E74" s="198"/>
+      <c r="F74" s="198"/>
+      <c r="G74" s="198"/>
+      <c r="H74" s="198"/>
+      <c r="I74" s="199"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="238" t="s">
+      <c r="D75" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="239"/>
-      <c r="F75" s="239"/>
-      <c r="G75" s="239"/>
-      <c r="H75" s="239"/>
-      <c r="I75" s="240"/>
+      <c r="E75" s="201"/>
+      <c r="F75" s="201"/>
+      <c r="G75" s="201"/>
+      <c r="H75" s="201"/>
+      <c r="I75" s="202"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="238" t="s">
+      <c r="D76" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="239"/>
-      <c r="F76" s="239"/>
-      <c r="G76" s="239"/>
-      <c r="H76" s="239"/>
-      <c r="I76" s="240"/>
+      <c r="E76" s="201"/>
+      <c r="F76" s="201"/>
+      <c r="G76" s="201"/>
+      <c r="H76" s="201"/>
+      <c r="I76" s="202"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="238" t="s">
+      <c r="D77" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="239"/>
-      <c r="F77" s="239"/>
-      <c r="G77" s="239"/>
-      <c r="H77" s="239"/>
-      <c r="I77" s="240"/>
+      <c r="E77" s="201"/>
+      <c r="F77" s="201"/>
+      <c r="G77" s="201"/>
+      <c r="H77" s="201"/>
+      <c r="I77" s="202"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -10512,45 +10316,36 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="214" t="s">
+      <c r="C91" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="214"/>
+      <c r="D91" s="203"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="241">
+      <c r="G91" s="204">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="241"/>
-      <c r="I91" s="241"/>
+        <v>45308</v>
+      </c>
+      <c r="H91" s="204"/>
+      <c r="I91" s="204"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="234"/>
-      <c r="H92" s="234"/>
+      <c r="G92" s="196"/>
+      <c r="H92" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="L42:S42"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -10564,16 +10359,25 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="L39:S39"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{027AC6F8-6212-42AF-BEE9-C1D52F5D423A}"/>
@@ -10696,40 +10500,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="214" t="s">
+      <c r="C13" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="214"/>
+      <c r="D13" s="203"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="214" t="s">
+      <c r="F13" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="216" t="s">
+      <c r="C14" s="220" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="216"/>
-      <c r="F14" s="216" t="s">
+      <c r="D14" s="220"/>
+      <c r="F14" s="220" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="216"/>
-      <c r="H14" s="216"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="220"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="214" t="s">
+      <c r="C15" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="214"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -10738,232 +10542,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="211"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="222" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="219" t="s">
+      <c r="B19" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="219"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="219"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="223"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="219" t="s">
+      <c r="B20" s="223" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="219"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="219"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="223"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="145" t="s">
+      <c r="C24" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="242" t="s">
+      <c r="D26" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="242"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="242"/>
-      <c r="H26" s="242"/>
-      <c r="I26" s="242"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="243" t="s">
+      <c r="C27" s="225" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="244" t="s">
+      <c r="D27" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="244"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="226"/>
+      <c r="I27" s="226"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="243"/>
-      <c r="D28" s="244"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="244"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="244"/>
+      <c r="C28" s="225"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="226"/>
+      <c r="H28" s="226"/>
+      <c r="I28" s="226"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="243"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="244"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="226"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="243" t="s">
+      <c r="C30" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="226" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="244"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="226"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="243"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="226"/>
+      <c r="E31" s="226"/>
+      <c r="F31" s="226"/>
+      <c r="G31" s="226"/>
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="243"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
-      <c r="I32" s="244"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="226"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="226"/>
+      <c r="G32" s="226"/>
+      <c r="H32" s="226"/>
+      <c r="I32" s="226"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="243" t="s">
+      <c r="C33" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="244" t="s">
+      <c r="D33" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="244"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="226"/>
+      <c r="G33" s="226"/>
+      <c r="H33" s="226"/>
+      <c r="I33" s="226"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="243"/>
-      <c r="D34" s="244"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
-      <c r="H34" s="244"/>
-      <c r="I34" s="244"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="226"/>
+      <c r="I34" s="226"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="243"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="244"/>
-      <c r="I35" s="244"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="243" t="s">
+      <c r="C36" s="225" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="244" t="s">
+      <c r="D36" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="244"/>
-      <c r="I36" s="244"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="226"/>
+      <c r="I36" s="226"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="243"/>
-      <c r="D37" s="244"/>
-      <c r="E37" s="244"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="244"/>
-      <c r="I37" s="244"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="226"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="226"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="243"/>
-      <c r="D38" s="244"/>
-      <c r="E38" s="244"/>
-      <c r="F38" s="244"/>
-      <c r="G38" s="244"/>
-      <c r="H38" s="244"/>
-      <c r="I38" s="244"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="226"/>
+      <c r="E38" s="226"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="226"/>
+      <c r="H38" s="226"/>
+      <c r="I38" s="226"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -11004,157 +10808,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="242" t="s">
+      <c r="D58" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="242"/>
-      <c r="F58" s="242"/>
-      <c r="G58" s="242"/>
-      <c r="H58" s="242"/>
-      <c r="I58" s="242"/>
+      <c r="E58" s="228"/>
+      <c r="F58" s="228"/>
+      <c r="G58" s="228"/>
+      <c r="H58" s="228"/>
+      <c r="I58" s="228"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="243" t="s">
+      <c r="C59" s="225" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="244" t="s">
+      <c r="D59" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="244"/>
-      <c r="F59" s="244"/>
-      <c r="G59" s="244"/>
-      <c r="H59" s="244"/>
-      <c r="I59" s="244"/>
+      <c r="E59" s="226"/>
+      <c r="F59" s="226"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
+      <c r="I59" s="226"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="243"/>
-      <c r="D60" s="244"/>
-      <c r="E60" s="244"/>
-      <c r="F60" s="244"/>
-      <c r="G60" s="244"/>
-      <c r="H60" s="244"/>
-      <c r="I60" s="244"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="226"/>
+      <c r="E60" s="226"/>
+      <c r="F60" s="226"/>
+      <c r="G60" s="226"/>
+      <c r="H60" s="226"/>
+      <c r="I60" s="226"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="243" t="s">
+      <c r="C61" s="225" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="244" t="s">
+      <c r="D61" s="226" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="244"/>
-      <c r="F61" s="244"/>
-      <c r="G61" s="244"/>
-      <c r="H61" s="244"/>
-      <c r="I61" s="244"/>
+      <c r="E61" s="226"/>
+      <c r="F61" s="226"/>
+      <c r="G61" s="226"/>
+      <c r="H61" s="226"/>
+      <c r="I61" s="226"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="243"/>
-      <c r="D62" s="244"/>
-      <c r="E62" s="244"/>
-      <c r="F62" s="244"/>
-      <c r="G62" s="244"/>
-      <c r="H62" s="244"/>
-      <c r="I62" s="244"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="226"/>
+      <c r="E62" s="226"/>
+      <c r="F62" s="226"/>
+      <c r="G62" s="226"/>
+      <c r="H62" s="226"/>
+      <c r="I62" s="226"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="243" t="s">
+      <c r="C63" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="244" t="s">
+      <c r="D63" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="244"/>
-      <c r="F63" s="244"/>
-      <c r="G63" s="244"/>
-      <c r="H63" s="244"/>
-      <c r="I63" s="244"/>
+      <c r="E63" s="226"/>
+      <c r="F63" s="226"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="226"/>
+      <c r="I63" s="226"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="243"/>
-      <c r="D64" s="244"/>
-      <c r="E64" s="244"/>
-      <c r="F64" s="244"/>
-      <c r="G64" s="244"/>
-      <c r="H64" s="244"/>
-      <c r="I64" s="244"/>
+      <c r="C64" s="225"/>
+      <c r="D64" s="226"/>
+      <c r="E64" s="226"/>
+      <c r="F64" s="226"/>
+      <c r="G64" s="226"/>
+      <c r="H64" s="226"/>
+      <c r="I64" s="226"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="243" t="s">
+      <c r="C65" s="225" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="244" t="s">
+      <c r="D65" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="244"/>
-      <c r="F65" s="244"/>
-      <c r="G65" s="244"/>
-      <c r="H65" s="244"/>
-      <c r="I65" s="244"/>
+      <c r="E65" s="226"/>
+      <c r="F65" s="226"/>
+      <c r="G65" s="226"/>
+      <c r="H65" s="226"/>
+      <c r="I65" s="226"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="243"/>
-      <c r="D66" s="244"/>
-      <c r="E66" s="244"/>
-      <c r="F66" s="244"/>
-      <c r="G66" s="244"/>
-      <c r="H66" s="244"/>
-      <c r="I66" s="244"/>
+      <c r="C66" s="225"/>
+      <c r="D66" s="226"/>
+      <c r="E66" s="226"/>
+      <c r="F66" s="226"/>
+      <c r="G66" s="226"/>
+      <c r="H66" s="226"/>
+      <c r="I66" s="226"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="243"/>
-      <c r="D67" s="244"/>
-      <c r="E67" s="244"/>
-      <c r="F67" s="244"/>
-      <c r="G67" s="244"/>
-      <c r="H67" s="244"/>
-      <c r="I67" s="244"/>
+      <c r="C67" s="225"/>
+      <c r="D67" s="226"/>
+      <c r="E67" s="226"/>
+      <c r="F67" s="226"/>
+      <c r="G67" s="226"/>
+      <c r="H67" s="226"/>
+      <c r="I67" s="226"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="243" t="s">
+      <c r="C68" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="244" t="s">
+      <c r="D68" s="226" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="244"/>
-      <c r="F68" s="244"/>
-      <c r="G68" s="244"/>
-      <c r="H68" s="244"/>
-      <c r="I68" s="244"/>
+      <c r="E68" s="226"/>
+      <c r="F68" s="226"/>
+      <c r="G68" s="226"/>
+      <c r="H68" s="226"/>
+      <c r="I68" s="226"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="243"/>
-      <c r="D69" s="244"/>
-      <c r="E69" s="244"/>
-      <c r="F69" s="244"/>
-      <c r="G69" s="244"/>
-      <c r="H69" s="244"/>
-      <c r="I69" s="244"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="226"/>
+      <c r="E69" s="226"/>
+      <c r="F69" s="226"/>
+      <c r="G69" s="226"/>
+      <c r="H69" s="226"/>
+      <c r="I69" s="226"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="243"/>
-      <c r="D70" s="244"/>
-      <c r="E70" s="244"/>
-      <c r="F70" s="244"/>
-      <c r="G70" s="244"/>
-      <c r="H70" s="244"/>
-      <c r="I70" s="244"/>
+      <c r="C70" s="225"/>
+      <c r="D70" s="226"/>
+      <c r="E70" s="226"/>
+      <c r="F70" s="226"/>
+      <c r="G70" s="226"/>
+      <c r="H70" s="226"/>
+      <c r="I70" s="226"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -11165,53 +10969,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="246" t="s">
+      <c r="D74" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="246"/>
-      <c r="F74" s="246"/>
-      <c r="G74" s="246"/>
-      <c r="H74" s="246"/>
-      <c r="I74" s="246"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="227"/>
+      <c r="G74" s="227"/>
+      <c r="H74" s="227"/>
+      <c r="I74" s="227"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="245" t="s">
+      <c r="D75" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="245"/>
-      <c r="F75" s="245"/>
-      <c r="G75" s="245"/>
-      <c r="H75" s="245"/>
-      <c r="I75" s="245"/>
+      <c r="E75" s="224"/>
+      <c r="F75" s="224"/>
+      <c r="G75" s="224"/>
+      <c r="H75" s="224"/>
+      <c r="I75" s="224"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="245" t="s">
+      <c r="D76" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="245"/>
-      <c r="F76" s="245"/>
-      <c r="G76" s="245"/>
-      <c r="H76" s="245"/>
-      <c r="I76" s="245"/>
+      <c r="E76" s="224"/>
+      <c r="F76" s="224"/>
+      <c r="G76" s="224"/>
+      <c r="H76" s="224"/>
+      <c r="I76" s="224"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="245" t="s">
+      <c r="D77" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="245"/>
-      <c r="F77" s="245"/>
-      <c r="G77" s="245"/>
-      <c r="H77" s="245"/>
-      <c r="I77" s="245"/>
+      <c r="E77" s="224"/>
+      <c r="F77" s="224"/>
+      <c r="G77" s="224"/>
+      <c r="H77" s="224"/>
+      <c r="I77" s="224"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -11228,43 +11032,36 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="214" t="s">
+      <c r="C91" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="214"/>
+      <c r="D91" s="203"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="241">
+      <c r="G91" s="204">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="241"/>
-      <c r="I91" s="241"/>
+        <v>45308</v>
+      </c>
+      <c r="H91" s="204"/>
+      <c r="I91" s="204"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="142"/>
-      <c r="H92" s="142"/>
+      <c r="G92" s="141"/>
+      <c r="H92" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -11278,16 +11075,23 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="C56:J56"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:H92"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6E9829A0-4BB3-4C8C-A320-546D81175A58}"/>
@@ -11319,7 +11123,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11356,28 +11160,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="167"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -11404,15 +11208,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -11437,15 +11241,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -11486,16 +11290,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -11585,48 +11389,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11639,16 +11443,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -11662,16 +11466,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11694,227 +11498,228 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="167" t="s">
+      <c r="B68" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
-      <c r="F68" s="167"/>
-      <c r="G68" s="167"/>
-      <c r="H68" s="167"/>
-      <c r="I68" s="167"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="160"/>
+      <c r="G68" s="160"/>
+      <c r="H68" s="160"/>
+      <c r="I68" s="160"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="167"/>
-      <c r="F69" s="167"/>
-      <c r="G69" s="167"/>
-      <c r="H69" s="167"/>
-      <c r="I69" s="167"/>
+      <c r="B69" s="160"/>
+      <c r="C69" s="160"/>
+      <c r="D69" s="160"/>
+      <c r="E69" s="160"/>
+      <c r="F69" s="160"/>
+      <c r="G69" s="160"/>
+      <c r="H69" s="160"/>
+      <c r="I69" s="160"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="254"/>
-      <c r="C71" s="255"/>
-      <c r="D71" s="258" t="s">
+      <c r="B71" s="229"/>
+      <c r="C71" s="230"/>
+      <c r="D71" s="233" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="259"/>
-      <c r="F71" s="258" t="s">
+      <c r="E71" s="234"/>
+      <c r="F71" s="233" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="259"/>
-      <c r="H71" s="258" t="s">
+      <c r="G71" s="234"/>
+      <c r="H71" s="233" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="259"/>
+      <c r="I71" s="234"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="256"/>
-      <c r="C72" s="257"/>
-      <c r="D72" s="260"/>
-      <c r="E72" s="261"/>
-      <c r="F72" s="260"/>
-      <c r="G72" s="261"/>
-      <c r="H72" s="260"/>
-      <c r="I72" s="261"/>
+      <c r="B72" s="231"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="235"/>
+      <c r="E72" s="236"/>
+      <c r="F72" s="235"/>
+      <c r="G72" s="236"/>
+      <c r="H72" s="235"/>
+      <c r="I72" s="236"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="250" t="s">
+      <c r="B73" s="240" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="251"/>
-      <c r="D73" s="247"/>
-      <c r="E73" s="248"/>
-      <c r="F73" s="249"/>
-      <c r="G73" s="248"/>
-      <c r="H73" s="249"/>
-      <c r="I73" s="248"/>
+      <c r="C73" s="241"/>
+      <c r="D73" s="237"/>
+      <c r="E73" s="238"/>
+      <c r="F73" s="239"/>
+      <c r="G73" s="238"/>
+      <c r="H73" s="239"/>
+      <c r="I73" s="238"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="167" t="s">
+      <c r="B75" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="167"/>
-      <c r="D75" s="167"/>
-      <c r="E75" s="167"/>
-      <c r="F75" s="167"/>
-      <c r="G75" s="167"/>
-      <c r="H75" s="167"/>
-      <c r="I75" s="167"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="160"/>
+      <c r="E75" s="160"/>
+      <c r="F75" s="160"/>
+      <c r="G75" s="160"/>
+      <c r="H75" s="160"/>
+      <c r="I75" s="160"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="167"/>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="167"/>
-      <c r="F76" s="167"/>
-      <c r="G76" s="167"/>
-      <c r="H76" s="167"/>
-      <c r="I76" s="167"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="160"/>
+      <c r="I76" s="160"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="252" t="s">
+      <c r="E78" s="242" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="253"/>
-      <c r="G78" s="253"/>
-      <c r="H78" s="253"/>
+      <c r="F78" s="243"/>
+      <c r="G78" s="243"/>
+      <c r="H78" s="243"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="253"/>
-      <c r="F79" s="253"/>
-      <c r="G79" s="253"/>
-      <c r="H79" s="253"/>
+      <c r="E79" s="243"/>
+      <c r="F79" s="243"/>
+      <c r="G79" s="243"/>
+      <c r="H79" s="243"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="127" t="s">
+      <c r="A81" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="127"/>
-      <c r="C81" s="127"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
-      <c r="H81" s="127"/>
-      <c r="I81" s="127"/>
+      <c r="B81" s="131"/>
+      <c r="C81" s="131"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="131"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="127"/>
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="127"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="127"/>
-      <c r="I82" s="127"/>
+      <c r="A82" s="131"/>
+      <c r="B82" s="131"/>
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="127"/>
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="127"/>
+      <c r="A83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="131"/>
+      <c r="G83" s="131"/>
+      <c r="H83" s="131"/>
+      <c r="I83" s="131"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="127"/>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-      <c r="G84" s="127"/>
-      <c r="H84" s="127"/>
-      <c r="I84" s="127"/>
+      <c r="A84" s="131"/>
+      <c r="B84" s="131"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="131"/>
+      <c r="G84" s="131"/>
+      <c r="H84" s="131"/>
+      <c r="I84" s="131"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="127"/>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
-      <c r="G85" s="127"/>
-      <c r="H85" s="127"/>
-      <c r="I85" s="127"/>
+      <c r="A85" s="131"/>
+      <c r="B85" s="131"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="131"/>
+      <c r="G85" s="131"/>
+      <c r="H85" s="131"/>
+      <c r="I85" s="131"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="127"/>
-      <c r="B86" s="127"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="127"/>
-      <c r="I86" s="127"/>
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="127"/>
-      <c r="B87" s="127"/>
-      <c r="C87" s="127"/>
-      <c r="D87" s="127"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="127"/>
-      <c r="G87" s="127"/>
-      <c r="H87" s="127"/>
-      <c r="I87" s="127"/>
+      <c r="A87" s="131"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="131"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="127"/>
-      <c r="B88" s="127"/>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="127"/>
-      <c r="G88" s="127"/>
-      <c r="H88" s="127"/>
-      <c r="I88" s="127"/>
+      <c r="A88" s="131"/>
+      <c r="B88" s="131"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
+      <c r="G88" s="131"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="131"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="127"/>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="127"/>
+      <c r="A89" s="131"/>
+      <c r="B89" s="131"/>
+      <c r="C89" s="131"/>
+      <c r="D89" s="131"/>
+      <c r="E89" s="131"/>
+      <c r="F89" s="131"/>
+      <c r="G89" s="131"/>
+      <c r="H89" s="131"/>
+      <c r="I89" s="131"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="127"/>
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="127"/>
+      <c r="A90" s="131"/>
+      <c r="B90" s="131"/>
+      <c r="C90" s="131"/>
+      <c r="D90" s="131"/>
+      <c r="E90" s="131"/>
+      <c r="F90" s="131"/>
+      <c r="G90" s="131"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="A81:I90"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B75:I76"/>
+    <mergeCell ref="E78:H79"/>
     <mergeCell ref="B59:I59"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B68:I69"/>
@@ -11922,13 +11727,12 @@
     <mergeCell ref="D71:E72"/>
     <mergeCell ref="F71:G72"/>
     <mergeCell ref="H71:I72"/>
-    <mergeCell ref="A81:I90"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B75:I76"/>
-    <mergeCell ref="E78:H79"/>
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11953,7 +11757,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11990,28 +11794,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="167" t="s">
+      <c r="A15" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
+      <c r="B15" s="160"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="167"/>
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -12038,15 +11842,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -12071,15 +11875,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -12120,16 +11924,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12219,48 +12023,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="123" t="s">
+      <c r="B45" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="167" t="s">
+      <c r="B46" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
+      <c r="B47" s="160"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="160"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -12273,16 +12077,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="123"/>
-      <c r="I59" s="123"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -12296,16 +12100,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="123" t="s">
+      <c r="B62" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="123"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -12328,221 +12132,234 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="167" t="s">
+      <c r="B68" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
-      <c r="F68" s="167"/>
-      <c r="G68" s="167"/>
-      <c r="H68" s="167"/>
-      <c r="I68" s="167"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="160"/>
+      <c r="F68" s="160"/>
+      <c r="G68" s="160"/>
+      <c r="H68" s="160"/>
+      <c r="I68" s="160"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="167"/>
-      <c r="F69" s="167"/>
-      <c r="G69" s="167"/>
-      <c r="H69" s="167"/>
-      <c r="I69" s="167"/>
+      <c r="B69" s="160"/>
+      <c r="C69" s="160"/>
+      <c r="D69" s="160"/>
+      <c r="E69" s="160"/>
+      <c r="F69" s="160"/>
+      <c r="G69" s="160"/>
+      <c r="H69" s="160"/>
+      <c r="I69" s="160"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="254"/>
-      <c r="C71" s="255"/>
-      <c r="D71" s="258" t="s">
+      <c r="B71" s="229"/>
+      <c r="C71" s="230"/>
+      <c r="D71" s="233" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="259"/>
-      <c r="F71" s="258" t="s">
+      <c r="E71" s="234"/>
+      <c r="F71" s="233" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="259"/>
-      <c r="H71" s="258" t="s">
+      <c r="G71" s="234"/>
+      <c r="H71" s="233" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="259"/>
+      <c r="I71" s="234"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="256"/>
-      <c r="C72" s="257"/>
-      <c r="D72" s="260"/>
-      <c r="E72" s="261"/>
-      <c r="F72" s="260"/>
-      <c r="G72" s="261"/>
-      <c r="H72" s="260"/>
-      <c r="I72" s="261"/>
+      <c r="B72" s="231"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="235"/>
+      <c r="E72" s="236"/>
+      <c r="F72" s="235"/>
+      <c r="G72" s="236"/>
+      <c r="H72" s="235"/>
+      <c r="I72" s="236"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="250" t="s">
+      <c r="B73" s="240" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="251"/>
-      <c r="D73" s="247"/>
-      <c r="E73" s="248"/>
-      <c r="F73" s="249"/>
-      <c r="G73" s="248"/>
-      <c r="H73" s="249"/>
-      <c r="I73" s="248"/>
+      <c r="C73" s="241"/>
+      <c r="D73" s="237"/>
+      <c r="E73" s="238"/>
+      <c r="F73" s="239"/>
+      <c r="G73" s="238"/>
+      <c r="H73" s="239"/>
+      <c r="I73" s="238"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="167" t="s">
+      <c r="B75" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="167"/>
-      <c r="D75" s="167"/>
-      <c r="E75" s="167"/>
-      <c r="F75" s="167"/>
-      <c r="G75" s="167"/>
-      <c r="H75" s="167"/>
-      <c r="I75" s="167"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="160"/>
+      <c r="E75" s="160"/>
+      <c r="F75" s="160"/>
+      <c r="G75" s="160"/>
+      <c r="H75" s="160"/>
+      <c r="I75" s="160"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="167"/>
-      <c r="C76" s="167"/>
-      <c r="D76" s="167"/>
-      <c r="E76" s="167"/>
-      <c r="F76" s="167"/>
-      <c r="G76" s="167"/>
-      <c r="H76" s="167"/>
-      <c r="I76" s="167"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="160"/>
+      <c r="I76" s="160"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="252" t="s">
+      <c r="E78" s="242" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="253"/>
-      <c r="G78" s="253"/>
-      <c r="H78" s="253"/>
+      <c r="F78" s="243"/>
+      <c r="G78" s="243"/>
+      <c r="H78" s="243"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="253"/>
-      <c r="F79" s="253"/>
-      <c r="G79" s="253"/>
-      <c r="H79" s="253"/>
+      <c r="E79" s="243"/>
+      <c r="F79" s="243"/>
+      <c r="G79" s="243"/>
+      <c r="H79" s="243"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="127" t="s">
+      <c r="A81" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="127"/>
-      <c r="C81" s="127"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
-      <c r="H81" s="127"/>
-      <c r="I81" s="127"/>
+      <c r="B81" s="131"/>
+      <c r="C81" s="131"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="131"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="127"/>
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="127"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="127"/>
-      <c r="I82" s="127"/>
+      <c r="A82" s="131"/>
+      <c r="B82" s="131"/>
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="127"/>
-      <c r="B83" s="127"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="127"/>
+      <c r="A83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="131"/>
+      <c r="G83" s="131"/>
+      <c r="H83" s="131"/>
+      <c r="I83" s="131"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="127"/>
-      <c r="B84" s="127"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-      <c r="G84" s="127"/>
-      <c r="H84" s="127"/>
-      <c r="I84" s="127"/>
+      <c r="A84" s="131"/>
+      <c r="B84" s="131"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="131"/>
+      <c r="G84" s="131"/>
+      <c r="H84" s="131"/>
+      <c r="I84" s="131"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="127"/>
-      <c r="B85" s="127"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
-      <c r="G85" s="127"/>
-      <c r="H85" s="127"/>
-      <c r="I85" s="127"/>
+      <c r="A85" s="131"/>
+      <c r="B85" s="131"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="131"/>
+      <c r="G85" s="131"/>
+      <c r="H85" s="131"/>
+      <c r="I85" s="131"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="127"/>
-      <c r="B86" s="127"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="127"/>
-      <c r="I86" s="127"/>
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="127"/>
-      <c r="B87" s="127"/>
-      <c r="C87" s="127"/>
-      <c r="D87" s="127"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="127"/>
-      <c r="G87" s="127"/>
-      <c r="H87" s="127"/>
-      <c r="I87" s="127"/>
+      <c r="A87" s="131"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="131"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="127"/>
-      <c r="B88" s="127"/>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="127"/>
-      <c r="G88" s="127"/>
-      <c r="H88" s="127"/>
-      <c r="I88" s="127"/>
+      <c r="A88" s="131"/>
+      <c r="B88" s="131"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
+      <c r="G88" s="131"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="131"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="127"/>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="127"/>
+      <c r="A89" s="131"/>
+      <c r="B89" s="131"/>
+      <c r="C89" s="131"/>
+      <c r="D89" s="131"/>
+      <c r="E89" s="131"/>
+      <c r="F89" s="131"/>
+      <c r="G89" s="131"/>
+      <c r="H89" s="131"/>
+      <c r="I89" s="131"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="127"/>
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="127"/>
+      <c r="A90" s="131"/>
+      <c r="B90" s="131"/>
+      <c r="C90" s="131"/>
+      <c r="D90" s="131"/>
+      <c r="E90" s="131"/>
+      <c r="F90" s="131"/>
+      <c r="G90" s="131"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B68:I69"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I72"/>
     <mergeCell ref="A81:I90"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="D73:E73"/>
@@ -12550,19 +12367,6 @@
     <mergeCell ref="H73:I73"/>
     <mergeCell ref="B75:I76"/>
     <mergeCell ref="E78:H79"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B68:I69"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
